--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE216CD-C581-0E41-8635-FE85C4BEB01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B452F66-A00F-D34F-886A-0264B992CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="5620" windowWidth="34560" windowHeight="20180" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="3340" yWindow="760" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="476">
   <si>
     <r>
       <rPr>
@@ -1826,12 +1826,6 @@
     <t>This  [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/)] hook would generally be specific to an in-patient encounter and would fire when a provider is performing the discharge process within the CRD Client.</t>
   </si>
   <si>
-    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should] Verify that documentation requirements for the services performed have been met to ensure the services provided can be reimbursed</t>
-  </si>
-  <si>
-    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should] Ensure that required follow-up planning is complete and appropriate transfer of care has been arranged, particularly for accountable care models</t>
-  </si>
-  <si>
     <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook] The profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
   </si>
   <si>
@@ -1862,67 +1856,10 @@
     <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select</t>
   </si>
   <si>
-    <t xml:space="preserve">[Servers SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/))] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> conditional on supporting the indicated hook.</t>
   </si>
   <si>
-    <t xml:space="preserve">[Clients SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/))] </t>
-  </si>
-  <si>
-    <t>Coverage requirements [returned from the [order-select hook](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/)] SHOULD be limited only to those resources that are included in the `selections` context</t>
-  </si>
-  <si>
-    <t>the content of other [resources that are not included in the `selections` context] resources  [[for the order-select hook](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/)] SHOULD also be considered before making recommendations about what additional actions are necessary. (I.e. don’t recommend an action if there’s already a draft order to perform that action.)</t>
-  </si>
-  <si>
-    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/) hook] the profiles expected to be used for the resources resolved to by the `patientId` [are] [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
-  </si>
-  <si>
-    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/) hook] the profiles expected to be used for the resources resolved to by the … `encounterId` [are] [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[for the [order-select](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/) hook] The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html), [and] [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) </t>
-  </si>
-  <si>
-    <t>While this [order-select](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/)] hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.</t>
-  </si>
-  <si>
-    <t>This [[order-select](https://cds-hooks.hl7.org/hooks/order-select/STU1/order-select/)] hook MAY be used in scenarios that don’t involve creating a true order</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-sign</t>
-  </si>
-  <si>
-    <t>[Servers SHALL support] version 1.0 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook. [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/))]</t>
-  </si>
-  <si>
-    <t>[Clients SHALL support] version 1.0 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/))]</t>
-  </si>
-  <si>
-    <t>[[For the order-sign hook](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/)] It’s appropriate to provide warnings if there is insufficient information to determine coverage requirements.</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to [order-sign](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/) [including: the profiles expected to be used for the resources resolved to by the `patientId`are [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to [order-sign](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/) [including: the profiles expected to be used for the resources resolved to by the … `encounterId` are [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to [order-sign](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/) [including: The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html),  [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to [order-sign](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/) [including: while this hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.]</t>
-  </si>
-  <si>
-    <t>CRD Servers MAY use this [[order-sign hook](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
-  </si>
-  <si>
-    <t>CRD clients ... SHALL, at minimum, support returning … processing the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/)] hook.</t>
-  </si>
-  <si>
-    <t>CRD... servers SHALL, at minimum, support... processing the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/order-sign/STU1/order-sign/)] hook.</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#cards-profiles</t>
@@ -2982,6 +2919,147 @@
   </si>
   <si>
     <t>this is text describing and the requirement is actually in requirement 135, so marked as DEPRECATED.</t>
+  </si>
+  <si>
+    <t>conditional on requirement 20: if clients allow users to continue their workflow before long-running CRD results return, then this is a requirement.</t>
+  </si>
+  <si>
+    <t>[Clients SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
+  </si>
+  <si>
+    <t>[Servers SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Servers SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Clients SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
+  </si>
+  <si>
+    <t>Coverage requirements [returned from the [order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD be limited only to those resources that are included in the `selections` context</t>
+  </si>
+  <si>
+    <t>the content of other [resources that are not included in the `selections` context] resources  [[for the order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD also be considered before making recommendations about what additional actions are necessary. (I.e. don’t recommend an action if there’s already a draft order to perform that action.)</t>
+  </si>
+  <si>
+    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the `patientId` [are] [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
+  </si>
+  <si>
+    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the … `encounterId` [are] [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[for the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html), [and] [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) </t>
+  </si>
+  <si>
+    <t>While this [order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.</t>
+  </si>
+  <si>
+    <t>This [[order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook MAY be used in scenarios that don’t involve creating a true order</t>
+  </si>
+  <si>
+    <t>[[For the order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] It’s appropriate to provide warnings if there is insufficient information to determine coverage requirements.</t>
+  </si>
+  <si>
+    <t>CRD Servers MAY use this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
+  </si>
+  <si>
+    <t>CRD clients ... SHALL, at minimum, support … processing the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
+  </si>
+  <si>
+    <t>CRD... servers SHALL, at minimum, support returning ... the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the `patientId`are [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the … `encounterId` are [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html),  [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: while this hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.]</t>
+  </si>
+  <si>
+    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should v]erify that documentation requirements for the services performed have been met to ensure the services provided can be reimbursed</t>
+  </si>
+  <si>
+    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should e]nsure that required follow-up planning is complete and appropriate transfer of care has been arranged, particularly for accountable care models</t>
+  </si>
+  <si>
+    <t>FHIR API</t>
+  </si>
+  <si>
+    <t>User Interaction</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Prefetch</t>
+  </si>
+  <si>
+    <t>What if</t>
+  </si>
+  <si>
+    <t>CRD Request</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>CRD Configuration</t>
+  </si>
+  <si>
+    <t>Resource creation</t>
+  </si>
+  <si>
+    <t>User interaction</t>
+  </si>
+  <si>
+    <t>Deprecated because this is a detail that implementers need to be aware of and handle based on internal implementation choices, but that an external system performing verification won't see or need to check explicitly. 72 is the real requirement.</t>
+  </si>
+  <si>
+    <t>Hook - appointment-book</t>
+  </si>
+  <si>
+    <t>Hook - encounter-start</t>
+  </si>
+  <si>
+    <t>Card - External reference</t>
+  </si>
+  <si>
+    <t>Card - Coverage information</t>
+  </si>
+  <si>
+    <t>Hook - encounter-discharge</t>
+  </si>
+  <si>
+    <t>Card - Identify additional orders</t>
+  </si>
+  <si>
+    <t>Card - Instructions</t>
+  </si>
+  <si>
+    <t>Hook - order-dispatch</t>
+  </si>
+  <si>
+    <t>Hook - order-select</t>
+  </si>
+  <si>
+    <t>Hook - order-sign</t>
+  </si>
+  <si>
+    <t>Card - Propose alternate request</t>
+  </si>
+  <si>
+    <t>Card - Create or update coverage information</t>
+  </si>
+  <si>
+    <t>Card - Request form completion</t>
   </si>
 </sst>
 </file>
@@ -3453,6 +3531,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3471,20 +3563,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3853,14 +3931,14 @@
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>442</v>
+      <c r="A4" s="43" t="s">
+        <v>421</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
     </row>
@@ -3872,17 +3950,17 @@
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -3908,10 +3986,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A219" sqref="A219:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3939,68 +4017,68 @@
     <col min="22" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="47" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:31" s="41" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="48"/>
+      <c r="Y1" s="42"/>
     </row>
     <row r="2" spans="1:31" s="24" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
@@ -4063,6 +4141,9 @@
       <c r="N3" s="30" t="s">
         <v>35</v>
       </c>
+      <c r="P3" s="27" t="s">
+        <v>451</v>
+      </c>
       <c r="T3" s="27" t="s">
         <v>36</v>
       </c>
@@ -4361,10 +4442,10 @@
         <v>41</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -4384,7 +4465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -4408,7 +4489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -4428,7 +4509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -4448,7 +4529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>20</v>
       </c>
@@ -4472,7 +4553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>21</v>
       </c>
@@ -4487,6 +4568,12 @@
       </c>
       <c r="E22" s="25" t="s">
         <v>34</v>
+      </c>
+      <c r="G22" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>429</v>
       </c>
       <c r="M22" s="30" t="str" cm="1">
         <f t="array" ref="M22">PAGE_NAME(B22)</f>
@@ -4495,8 +4582,11 @@
       <c r="N22" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P22" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>22</v>
       </c>
@@ -4516,7 +4606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -4540,7 +4630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>24</v>
       </c>
@@ -4564,7 +4654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>25</v>
       </c>
@@ -4588,7 +4678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>26</v>
       </c>
@@ -4612,7 +4702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>27</v>
       </c>
@@ -4636,7 +4726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>28</v>
       </c>
@@ -4660,7 +4750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>29</v>
       </c>
@@ -4684,7 +4774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
         <v>30</v>
       </c>
@@ -4707,8 +4797,11 @@
       <c r="N31" s="30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P31" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
         <v>31</v>
       </c>
@@ -4731,8 +4824,11 @@
       <c r="N32" s="30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P32" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>32</v>
       </c>
@@ -4755,8 +4851,11 @@
       <c r="N33" s="30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P33" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
         <v>33</v>
       </c>
@@ -4779,8 +4878,11 @@
       <c r="N34" s="30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P34" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>34</v>
       </c>
@@ -4800,7 +4902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
         <v>35</v>
       </c>
@@ -4820,7 +4922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>36</v>
       </c>
@@ -4840,7 +4942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
         <v>37</v>
       </c>
@@ -4860,7 +4962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>38</v>
       </c>
@@ -4880,7 +4982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
         <v>39</v>
       </c>
@@ -4888,7 +4990,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>50</v>
@@ -4904,7 +5006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="25">
         <v>40</v>
       </c>
@@ -4928,7 +5030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
         <v>41</v>
       </c>
@@ -4952,7 +5054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="25">
         <v>42</v>
       </c>
@@ -4972,7 +5074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="221" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
         <v>43</v>
       </c>
@@ -4995,8 +5097,11 @@
       <c r="N44" s="30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P44" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
         <v>44</v>
       </c>
@@ -5020,7 +5125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A46" s="25">
         <v>45</v>
       </c>
@@ -5044,7 +5149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
         <v>46</v>
       </c>
@@ -5068,7 +5173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
         <v>47</v>
       </c>
@@ -5259,6 +5364,9 @@
       <c r="N55" s="30" t="s">
         <v>95</v>
       </c>
+      <c r="P55" s="27" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -5308,7 +5416,7 @@
         <v>110</v>
       </c>
       <c r="T57" s="27" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="119" x14ac:dyDescent="0.2">
@@ -5475,7 +5583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>64</v>
       </c>
@@ -5494,8 +5602,11 @@
       <c r="N65" s="30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P65" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>65</v>
       </c>
@@ -5514,8 +5625,11 @@
       <c r="N66" s="30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P66" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>66</v>
       </c>
@@ -5534,8 +5648,11 @@
       <c r="N67" s="30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P67" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
         <v>67</v>
       </c>
@@ -5559,7 +5676,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>68</v>
       </c>
@@ -5583,7 +5700,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
         <v>69</v>
       </c>
@@ -5602,8 +5719,11 @@
       <c r="N70" s="30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P70" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
         <v>70</v>
       </c>
@@ -5623,7 +5743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
         <v>71</v>
       </c>
@@ -5646,8 +5766,11 @@
       <c r="N72" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P72" s="27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
         <v>72</v>
       </c>
@@ -5666,8 +5789,11 @@
       <c r="N73" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P73" s="27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
         <v>73</v>
       </c>
@@ -5678,7 +5804,7 @@
         <v>134</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>34</v>
@@ -5690,8 +5816,14 @@
       <c r="N74" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P74" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="T74" s="27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
         <v>74</v>
       </c>
@@ -5702,13 +5834,19 @@
         <v>135</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P75" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="T75" s="27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
         <v>75</v>
       </c>
@@ -5731,8 +5869,11 @@
       <c r="N76" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P76" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
         <v>76</v>
       </c>
@@ -5756,7 +5897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="25">
         <v>77</v>
       </c>
@@ -5776,7 +5917,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="25">
         <v>78</v>
       </c>
@@ -5795,8 +5936,11 @@
       <c r="N79" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P79" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
         <v>79</v>
       </c>
@@ -5819,6 +5963,9 @@
       <c r="N80" s="30" t="s">
         <v>132</v>
       </c>
+      <c r="P80" s="27" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="81" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
@@ -5843,6 +5990,9 @@
       <c r="N81" s="30" t="s">
         <v>132</v>
       </c>
+      <c r="P81" s="27" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="82" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
@@ -5916,6 +6066,9 @@
         <f t="array" ref="N84">SECTION_NAME(B84)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P84" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="85" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="25">
@@ -5933,6 +6086,9 @@
       <c r="E85" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="P85" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
@@ -5950,6 +6106,9 @@
       <c r="E86" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="P86" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
@@ -5975,8 +6134,11 @@
         <f t="array" ref="N87">SECTION_NAME(B87)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P87" s="27" t="s">
+        <v>458</v>
+      </c>
       <c r="T87" s="27" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6003,6 +6165,9 @@
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P88" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="89" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
@@ -6028,6 +6193,9 @@
         <f t="array" ref="N89">SECTION_NAME(B89)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P89" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
@@ -6053,6 +6221,9 @@
         <f t="array" ref="N90">SECTION_NAME(B90)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P90" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="91" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
@@ -6104,7 +6275,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="T92" s="27" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -6131,6 +6302,9 @@
         <f t="array" ref="N93">SECTION_NAME(B93)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P93" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
@@ -6273,6 +6447,9 @@
         <f t="array" ref="N99">SECTION_NAME(B99)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P99" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="100" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="25">
@@ -6323,8 +6500,11 @@
         <f t="array" ref="N101">SECTION_NAME(B101)</f>
         <v>privacy-security-and-safety</v>
       </c>
+      <c r="P101" s="27" t="s">
+        <v>458</v>
+      </c>
       <c r="T101" s="27" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6602,7 +6782,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" s="25">
         <v>112</v>
       </c>
@@ -6627,7 +6807,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
         <v>113</v>
       </c>
@@ -6652,7 +6832,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="25">
         <v>114</v>
       </c>
@@ -6677,7 +6857,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="25">
         <v>115</v>
       </c>
@@ -6702,7 +6882,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="25">
         <v>116</v>
       </c>
@@ -6727,7 +6907,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="25">
         <v>117</v>
       </c>
@@ -6752,7 +6932,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
         <v>118</v>
       </c>
@@ -6777,7 +6957,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A120" s="25">
         <v>119</v>
       </c>
@@ -6802,7 +6982,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="25">
         <v>120</v>
       </c>
@@ -6827,7 +7007,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A122" s="25">
         <v>121</v>
       </c>
@@ -6852,7 +7032,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="25">
         <v>122</v>
       </c>
@@ -6877,7 +7057,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="25">
         <v>123</v>
       </c>
@@ -6902,7 +7082,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A125" s="25">
         <v>124</v>
       </c>
@@ -6927,7 +7107,7 @@
         <v>configuration-options-extension</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A126" s="25">
         <v>125</v>
       </c>
@@ -6952,7 +7132,7 @@
         <v>hook-configuration-extension</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A127" s="25">
         <v>126</v>
       </c>
@@ -6976,8 +7156,11 @@
         <f t="array" ref="N127">SECTION_NAME(B127)</f>
         <v>hook-configuration-extension</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P127" s="27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A128" s="25">
         <v>127</v>
       </c>
@@ -7126,8 +7309,11 @@
         <f t="array" ref="N133">SECTION_NAME(B133)</f>
         <v>additional-prefetch-capabilities</v>
       </c>
+      <c r="P133" s="27" t="s">
+        <v>454</v>
+      </c>
       <c r="T133" s="27" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -7154,6 +7340,9 @@
         <f t="array" ref="N134">SECTION_NAME(B134)</f>
         <v>additional-prefetch-capabilities</v>
       </c>
+      <c r="P134" s="27" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="135" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
@@ -7180,7 +7369,7 @@
         <v>additional-response-capabilities</v>
       </c>
       <c r="T135" s="27" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7249,6 +7438,9 @@
         <f t="array" ref="N138">SECTION_NAME(B138)</f>
         <v>linkage-between-created-resources</v>
       </c>
+      <c r="P138" s="27" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="139" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="25">
@@ -7274,6 +7466,9 @@
         <f t="array" ref="N139">SECTION_NAME(B139)</f>
         <v>linkage-between-created-resources</v>
       </c>
+      <c r="P139" s="27" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="140" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="25">
@@ -7299,6 +7494,9 @@
         <f t="array" ref="N140">SECTION_NAME(B140)</f>
         <v>linkage-between-created-resources</v>
       </c>
+      <c r="P140" s="27" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="141" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
@@ -7374,6 +7572,9 @@
         <f t="array" ref="N143">SECTION_NAME(B143)</f>
         <v>controlling-hook-invocation</v>
       </c>
+      <c r="P143" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="144" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="25">
@@ -7424,6 +7625,9 @@
         <f t="array" ref="N145">SECTION_NAME(B145)</f>
         <v>controlling-hook-invocation</v>
       </c>
+      <c r="P145" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="146" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="25">
@@ -7449,6 +7653,9 @@
         <f t="array" ref="N146">SECTION_NAME(B146)</f>
         <v>controlling-hook-invocation</v>
       </c>
+      <c r="P146" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="147" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="25">
@@ -7474,6 +7681,9 @@
         <f t="array" ref="N147">SECTION_NAME(B147)</f>
         <v>controlling-hook-invocation</v>
       </c>
+      <c r="P147" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="148" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="25">
@@ -7524,6 +7734,9 @@
         <f t="array" ref="N149">SECTION_NAME(B149)</f>
         <v>supported-hooks</v>
       </c>
+      <c r="P149" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="150" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" s="25">
@@ -7549,6 +7762,9 @@
         <f t="array" ref="N150">SECTION_NAME(B150)</f>
         <v>supported-hooks</v>
       </c>
+      <c r="P150" s="27" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="151" spans="1:20" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25">
@@ -7574,6 +7790,9 @@
         <f t="array" ref="N151">SECTION_NAME(B151)</f>
         <v>supported-hooks</v>
       </c>
+      <c r="P151" s="27" t="s">
+        <v>456</v>
+      </c>
       <c r="T151" s="27" t="s">
         <v>228</v>
       </c>
@@ -7803,7 +8022,7 @@
         <v>supported-hooks</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="25">
         <v>160</v>
       </c>
@@ -7828,7 +8047,7 @@
         <v>supported-hooks</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A162" s="25">
         <v>161</v>
       </c>
@@ -7853,7 +8072,7 @@
         <v>supported-hooks</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A163" s="25">
         <v>162</v>
       </c>
@@ -7878,7 +8097,7 @@
         <v>supported-hooks</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A164" s="25">
         <v>163</v>
       </c>
@@ -7903,7 +8122,7 @@
         <v>supported-hooks</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="221" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A165" s="25">
         <v>164</v>
       </c>
@@ -7924,7 +8143,7 @@
         <v>hook-categories</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A166" s="25">
         <v>165</v>
       </c>
@@ -7945,7 +8164,7 @@
         <v>hook-categories</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="25">
         <v>166</v>
       </c>
@@ -7966,7 +8185,7 @@
         <v>hook-categories</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A168" s="25">
         <v>167</v>
       </c>
@@ -7974,7 +8193,7 @@
         <v>242</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>157</v>
@@ -7987,7 +8206,7 @@
         <v>hook-categories</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
         <v>168</v>
       </c>
@@ -8008,7 +8227,7 @@
         <v>hook-categories</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="25">
         <v>169</v>
       </c>
@@ -8033,7 +8252,7 @@
         <v>appointment-book</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="25">
         <v>170</v>
       </c>
@@ -8054,7 +8273,7 @@
         <v>appointment-book</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A172" s="25">
         <v>171</v>
       </c>
@@ -8074,8 +8293,11 @@
         <f t="array" ref="N172">SECTION_NAME(B173)</f>
         <v>appointment-book</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P172" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A173" s="25">
         <v>172</v>
       </c>
@@ -8095,8 +8317,11 @@
         <f t="array" ref="N173">SECTION_NAME(B174)</f>
         <v>appointment-book</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P173" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A174" s="25">
         <v>173</v>
       </c>
@@ -8117,7 +8342,7 @@
         <v>appointment-book</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A175" s="25">
         <v>174</v>
       </c>
@@ -8138,7 +8363,7 @@
         <v>appointment-book</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="25">
         <v>175</v>
       </c>
@@ -8191,7 +8416,7 @@
         <v>256</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E178" s="25" t="s">
         <v>34</v>
@@ -8200,6 +8425,9 @@
         <f t="array" ref="N178">SECTION_NAME(B179)</f>
         <v>appointment-book</v>
       </c>
+      <c r="P178" s="27" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="179" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" s="25">
@@ -8212,7 +8440,7 @@
         <v>257</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>34</v>
@@ -8221,6 +8449,9 @@
         <f t="array" ref="N179">SECTION_NAME(B180)</f>
         <v>appointment-book</v>
       </c>
+      <c r="P179" s="27" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="180" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="25">
@@ -8233,7 +8464,7 @@
         <v>258</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>34</v>
@@ -8242,6 +8473,9 @@
         <f t="array" ref="N180">SECTION_NAME(B181)</f>
         <v>appointment-book</v>
       </c>
+      <c r="P180" s="27" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="181" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A181" s="25">
@@ -8254,7 +8488,7 @@
         <v>259</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E181" s="25" t="s">
         <v>34</v>
@@ -8263,6 +8497,9 @@
         <f t="array" ref="N181">SECTION_NAME(B182)</f>
         <v>appointment-book</v>
       </c>
+      <c r="P181" s="27" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="182" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A182" s="25">
@@ -8338,6 +8575,9 @@
         <f t="array" ref="N184">SECTION_NAME(B184)</f>
         <v>appointment-book</v>
       </c>
+      <c r="P184" s="27" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="185" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
@@ -8406,6 +8646,9 @@
         <f t="array" ref="N187">SECTION_NAME(B187)</f>
         <v>encounter-start</v>
       </c>
+      <c r="P187" s="27" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="188" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A188" s="25">
@@ -8427,6 +8670,9 @@
         <f t="array" ref="N188">SECTION_NAME(B188)</f>
         <v>encounter-start</v>
       </c>
+      <c r="P188" s="27" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="189" spans="1:21" ht="187" x14ac:dyDescent="0.2">
       <c r="A189" s="25">
@@ -8449,7 +8695,7 @@
         <v>encounter-start</v>
       </c>
       <c r="T189" s="27" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -8526,7 +8772,7 @@
         <v>272</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>34</v>
@@ -8535,6 +8781,9 @@
         <f t="array" ref="N193">SECTION_NAME(B193)</f>
         <v>encounter-start</v>
       </c>
+      <c r="P193" s="27" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="194" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="25">
@@ -8547,7 +8796,7 @@
         <v>273</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>34</v>
@@ -8556,6 +8805,9 @@
         <f t="array" ref="N194">SECTION_NAME(B194)</f>
         <v>encounter-start</v>
       </c>
+      <c r="P194" s="27" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="195" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A195" s="25">
@@ -8568,7 +8820,7 @@
         <v>274</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E195" s="25" t="s">
         <v>34</v>
@@ -8581,6 +8833,9 @@
         <f t="array" ref="N195">SECTION_NAME(B195)</f>
         <v>encounter-start</v>
       </c>
+      <c r="P195" s="27" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="196" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="25">
@@ -8640,6 +8895,9 @@
       <c r="E198" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="P198" s="27" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="199" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="25">
@@ -8666,7 +8924,7 @@
         <v>276</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="D200" s="25" t="s">
         <v>50</v>
@@ -8683,7 +8941,7 @@
         <v>276</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="D201" s="25" t="s">
         <v>50</v>
@@ -8700,13 +8958,16 @@
         <v>276</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E202" s="25" t="s">
         <v>34</v>
+      </c>
+      <c r="P202" s="27" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -8717,13 +8978,16 @@
         <v>276</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>34</v>
+      </c>
+      <c r="P203" s="27" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -8734,10 +8998,10 @@
         <v>276</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E204" s="25" t="s">
         <v>34</v>
@@ -8750,25 +9014,28 @@
         <f t="array" ref="N204">SECTION_NAME(B204)</f>
         <v>encounter-discharge</v>
       </c>
+      <c r="P204" s="27" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="205" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A205" s="25">
         <v>204</v>
       </c>
       <c r="B205" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T205" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="C205" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E205" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T205" s="27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="206" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -8776,19 +9043,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E206" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P206" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="T206" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E206" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="T206" s="27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8796,10 +9066,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D207" s="25" t="s">
         <v>28</v>
@@ -8816,7 +9086,7 @@
         <v>order-dispatch</v>
       </c>
       <c r="T207" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="208" spans="1:20" ht="119" x14ac:dyDescent="0.2">
@@ -8824,10 +9094,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>33</v>
@@ -8843,19 +9113,22 @@
         <f t="array" ref="N208">SECTION_NAME(B208)</f>
         <v>order-dispatch</v>
       </c>
+      <c r="P208" s="27" t="s">
+        <v>470</v>
+      </c>
       <c r="T208" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="25">
         <v>208</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>292</v>
+        <v>432</v>
       </c>
       <c r="D209" s="25" t="s">
         <v>33</v>
@@ -8864,18 +9137,18 @@
         <v>38</v>
       </c>
       <c r="T209" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A210" s="25">
         <v>209</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="D210" s="25" t="s">
         <v>33</v>
@@ -8883,8 +9156,11 @@
       <c r="E210" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="P210" s="27" t="s">
+        <v>471</v>
+      </c>
       <c r="T210" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8892,10 +9168,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>50</v>
@@ -8917,10 +9193,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C212" s="25" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="D212" s="25" t="s">
         <v>50</v>
@@ -8942,16 +9218,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E213" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="P213" s="27" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -8959,33 +9238,36 @@
         <v>213</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E214" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" ht="255" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="P214" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="238" x14ac:dyDescent="0.2">
       <c r="A215" s="25">
         <v>214</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>299</v>
+        <v>438</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E215" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M215" s="30" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
@@ -8995,22 +9277,28 @@
         <f t="array" ref="N215">SECTION_NAME(B215)</f>
         <v>order-select</v>
       </c>
+      <c r="P215" s="27" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="216" spans="1:20" ht="170" x14ac:dyDescent="0.2">
       <c r="A216" s="25">
         <v>215</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E216" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="P216" s="27" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -9018,16 +9306,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>301</v>
+        <v>440</v>
       </c>
       <c r="D217" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E217" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M217" s="30" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
@@ -9043,10 +9331,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="D218" s="25" t="s">
         <v>33</v>
@@ -9060,16 +9348,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="D219" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E219" s="25" t="s">
         <v>34</v>
+      </c>
+      <c r="P219" s="27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9077,10 +9368,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
       <c r="D220" s="25" t="s">
         <v>28</v>
@@ -9102,16 +9393,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="P221" s="27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -9119,16 +9413,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>307</v>
+        <v>446</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M222" s="30" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
@@ -9138,22 +9432,28 @@
         <f t="array" ref="N222">SECTION_NAME(B222)</f>
         <v>order-sign</v>
       </c>
+      <c r="P222" s="27" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="223" spans="1:20" ht="289" x14ac:dyDescent="0.2">
       <c r="A223" s="25">
         <v>222</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>308</v>
+        <v>447</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E223" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="P223" s="27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="221" x14ac:dyDescent="0.2">
@@ -9161,27 +9461,30 @@
         <v>223</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>309</v>
+        <v>448</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E224" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="P224" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" s="25">
         <v>224</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="D225" s="25" t="s">
         <v>28</v>
@@ -9198,15 +9501,15 @@
         <v>order-sign</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A226" s="25">
         <v>225</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>311</v>
+        <v>443</v>
       </c>
       <c r="D226" s="25" t="s">
         <v>33</v>
@@ -9222,16 +9525,19 @@
         <f t="array" ref="N226">SECTION_NAME(B226)</f>
         <v>order-sign</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P226" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A227" s="25">
         <v>226</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="D227" s="25" t="s">
         <v>33</v>
@@ -9248,15 +9554,15 @@
         <v>order-sign</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="25">
         <v>227</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="D228" s="25" t="s">
         <v>50</v>
@@ -9273,15 +9579,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="25">
         <v>228</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D229" s="25" t="s">
         <v>50</v>
@@ -9298,15 +9604,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A230" s="25">
         <v>229</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D230" s="25" t="s">
         <v>50</v>
@@ -9323,15 +9629,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A231" s="25">
         <v>230</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D231" s="25" t="s">
         <v>50</v>
@@ -9348,15 +9654,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A232" s="25">
         <v>231</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D232" s="25" t="s">
         <v>50</v>
@@ -9373,15 +9679,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A233" s="25">
         <v>232</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D233" s="25" t="s">
         <v>50</v>
@@ -9398,15 +9704,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" s="25">
         <v>233</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D234" s="25" t="s">
         <v>50</v>
@@ -9423,15 +9729,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="25">
         <v>234</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D235" s="25" t="s">
         <v>50</v>
@@ -9448,15 +9754,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="25">
         <v>235</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D236" s="25" t="s">
         <v>50</v>
@@ -9473,15 +9779,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A237" s="25">
         <v>236</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D237" s="25" t="s">
         <v>50</v>
@@ -9498,15 +9804,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A238" s="25">
         <v>237</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D238" s="25" t="s">
         <v>50</v>
@@ -9523,15 +9829,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="25">
         <v>238</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D239" s="25" t="s">
         <v>50</v>
@@ -9548,15 +9854,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A240" s="25">
         <v>239</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D240" s="25" t="s">
         <v>50</v>
@@ -9573,15 +9879,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="25">
         <v>240</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D241" s="25" t="s">
         <v>50</v>
@@ -9598,15 +9904,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="25">
         <v>241</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="D242" s="25" t="s">
         <v>105</v>
@@ -9623,15 +9929,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="25">
         <v>242</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D243" s="25" t="s">
         <v>50</v>
@@ -9648,15 +9954,15 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="25">
         <v>243</v>
       </c>
       <c r="B244" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D244" s="25" t="s">
         <v>33</v>
@@ -9672,16 +9978,19 @@
         <f t="array" ref="N244">SECTION_NAME(B244)</f>
         <v>potential-crd-response-types</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P244" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="25">
         <v>244</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D245" s="25" t="s">
         <v>33</v>
@@ -9697,16 +10006,19 @@
         <f t="array" ref="N245">SECTION_NAME(B245)</f>
         <v>potential-crd-response-types</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P245" s="27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="25">
         <v>245</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D246" s="25" t="s">
         <v>33</v>
@@ -9722,16 +10034,19 @@
         <f t="array" ref="N246">SECTION_NAME(B246)</f>
         <v>potential-crd-response-types</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P246" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="25">
         <v>246</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D247" s="25" t="s">
         <v>50</v>
@@ -9748,15 +10063,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A248" s="25">
         <v>247</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>33</v>
@@ -9773,15 +10088,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A249" s="25">
         <v>248</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D249" s="25" t="s">
         <v>33</v>
@@ -9798,15 +10113,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A250" s="25">
         <v>249</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D250" s="25" t="s">
         <v>33</v>
@@ -9823,15 +10138,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" s="25">
         <v>250</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D251" s="25" t="s">
         <v>28</v>
@@ -9848,15 +10163,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A252" s="25">
         <v>251</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D252" s="25" t="s">
         <v>28</v>
@@ -9873,15 +10188,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="25">
         <v>252</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D253" s="25" t="s">
         <v>33</v>
@@ -9898,15 +10213,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A254" s="25">
         <v>253</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D254" s="25" t="s">
         <v>105</v>
@@ -9923,15 +10238,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A255" s="25">
         <v>254</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D255" s="25" t="s">
         <v>33</v>
@@ -9947,16 +10262,19 @@
         <f t="array" ref="N255">SECTION_NAME(B255)</f>
         <v>potential-crd-response-types</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P255" s="27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" s="25">
         <v>255</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D256" s="25" t="s">
         <v>33</v>
@@ -9972,16 +10290,19 @@
         <f t="array" ref="N256">SECTION_NAME(B256)</f>
         <v>potential-crd-response-types</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P256" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A257" s="25">
         <v>256</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>50</v>
@@ -9998,15 +10319,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A258" s="25">
         <v>257</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D258" s="25" t="s">
         <v>50</v>
@@ -10023,15 +10344,15 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A259" s="25">
         <v>258</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D259" s="25" t="s">
         <v>33</v>
@@ -10048,15 +10369,15 @@
         <v>external-reference</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A260" s="25">
         <v>259</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D260" s="25" t="s">
         <v>33</v>
@@ -10073,15 +10394,15 @@
         <v>external-reference</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A261" s="25">
         <v>260</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>50</v>
@@ -10098,15 +10419,15 @@
         <v>external-reference</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A262" s="25">
         <v>261</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D262" s="25" t="s">
         <v>50</v>
@@ -10123,15 +10444,15 @@
         <v>external-reference</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" s="25">
         <v>262</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D263" s="25" t="s">
         <v>33</v>
@@ -10148,15 +10469,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A264" s="25">
         <v>263</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>33</v>
@@ -10172,16 +10493,19 @@
         <f t="array" ref="N264">SECTION_NAME(B264)</f>
         <v>coverage-information</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P264" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A265" s="25">
         <v>264</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D265" s="25" t="s">
         <v>33</v>
@@ -10198,15 +10522,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="25">
         <v>265</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D266" s="25" t="s">
         <v>33</v>
@@ -10223,15 +10547,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="25">
         <v>266</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D267" s="25" t="s">
         <v>28</v>
@@ -10248,15 +10572,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A268" s="25">
         <v>267</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D268" s="25" t="s">
         <v>157</v>
@@ -10273,15 +10597,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A269" s="25">
         <v>268</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D269" s="25" t="s">
         <v>50</v>
@@ -10298,15 +10622,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A270" s="25">
         <v>269</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D270" s="25" t="s">
         <v>50</v>
@@ -10323,15 +10647,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" s="25">
         <v>270</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D271" s="25" t="s">
         <v>50</v>
@@ -10348,15 +10672,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A272" s="25">
         <v>271</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D272" s="25" t="s">
         <v>105</v>
@@ -10373,15 +10697,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A273" s="25">
         <v>272</v>
       </c>
       <c r="B273" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D273" s="25" t="s">
         <v>33</v>
@@ -10398,15 +10722,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A274" s="25">
         <v>273</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="D274" s="25" t="s">
         <v>33</v>
@@ -10423,15 +10747,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A275" s="25">
         <v>274</v>
       </c>
       <c r="B275" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="D275" s="25" t="s">
         <v>33</v>
@@ -10448,15 +10772,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A276" s="25">
         <v>275</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D276" s="25" t="s">
         <v>33</v>
@@ -10473,15 +10797,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A277" s="25">
         <v>276</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="D277" s="25" t="s">
         <v>33</v>
@@ -10498,15 +10822,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A278" s="25">
         <v>277</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D278" s="25" t="s">
         <v>33</v>
@@ -10523,15 +10847,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A279" s="25">
         <v>278</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="D279" s="25" t="s">
         <v>33</v>
@@ -10547,16 +10871,19 @@
         <f t="array" ref="N279">SECTION_NAME(B279)</f>
         <v>coverage-information</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P279" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A280" s="25">
         <v>279</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D280" s="25" t="s">
         <v>33</v>
@@ -10573,15 +10900,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A281" s="25">
         <v>280</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D281" s="25" t="s">
         <v>33</v>
@@ -10597,16 +10924,19 @@
         <f t="array" ref="N281">SECTION_NAME(B281)</f>
         <v>coverage-information</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P281" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="25">
         <v>281</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D282" s="25" t="s">
         <v>28</v>
@@ -10623,15 +10953,15 @@
         <v>coverage-information</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A283" s="25">
         <v>282</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D283" s="25" t="s">
         <v>50</v>
@@ -10648,15 +10978,15 @@
         <v>propose-alternate-request</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="25">
         <v>283</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="D284" s="25" t="s">
         <v>50</v>
@@ -10673,15 +11003,15 @@
         <v>propose-alternate-request</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A285" s="25">
         <v>284</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D285" s="25" t="s">
         <v>33</v>
@@ -10697,16 +11027,19 @@
         <f t="array" ref="N285">SECTION_NAME(B285)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="P285" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A286" s="25">
         <v>285</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D286" s="25" t="s">
         <v>33</v>
@@ -10722,16 +11055,19 @@
         <f t="array" ref="N286">SECTION_NAME(B286)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P286" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A287" s="25">
         <v>286</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D287" s="25" t="s">
         <v>33</v>
@@ -10747,16 +11083,19 @@
         <f t="array" ref="N287">SECTION_NAME(B287)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+      <c r="P287" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A288" s="25">
         <v>287</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D288" s="25" t="s">
         <v>33</v>
@@ -10772,16 +11111,19 @@
         <f t="array" ref="N288">SECTION_NAME(B288)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P288" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A289" s="25">
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D289" s="25" t="s">
         <v>33</v>
@@ -10797,16 +11139,19 @@
         <f t="array" ref="N289">SECTION_NAME(B289)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P289" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A290" s="25">
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D290" s="25" t="s">
         <v>33</v>
@@ -10822,16 +11167,19 @@
         <f t="array" ref="N290">SECTION_NAME(B290)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P290" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A291" s="25">
         <v>290</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D291" s="25" t="s">
         <v>33</v>
@@ -10847,16 +11195,19 @@
         <f t="array" ref="N291">SECTION_NAME(B291)</f>
         <v>propose-alternate-request</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="P291" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A292" s="25">
         <v>291</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="D292" s="25" t="s">
         <v>33</v>
@@ -10868,16 +11219,19 @@
         <f t="array" ref="N292">SECTION_NAME(B292)</f>
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="P292" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A293" s="25">
         <v>292</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="D293" s="25" t="s">
         <v>33</v>
@@ -10889,16 +11243,19 @@
         <f t="array" ref="N293">SECTION_NAME(B293)</f>
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="P293" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A294" s="25">
         <v>293</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D294" s="25" t="s">
         <v>33</v>
@@ -10910,16 +11267,19 @@
         <f t="array" ref="N294">SECTION_NAME(B294)</f>
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P294" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A295" s="25">
         <v>294</v>
       </c>
       <c r="B295" s="33" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D295" s="25" t="s">
         <v>33</v>
@@ -10931,16 +11291,19 @@
         <f t="array" ref="N295">SECTION_NAME(B295)</f>
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P295" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A296" s="25">
         <v>295</v>
       </c>
       <c r="B296" s="33" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D296" s="25" t="s">
         <v>33</v>
@@ -10952,16 +11315,19 @@
         <f t="array" ref="N296">SECTION_NAME(B296)</f>
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P296" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A297" s="25">
         <v>296</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C297" s="25" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D297" s="25" t="s">
         <v>28</v>
@@ -10970,15 +11336,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A298" s="25">
         <v>297</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D298" s="25" t="s">
         <v>33</v>
@@ -10994,16 +11360,19 @@
         <f t="array" ref="N298">SECTION_NAME(B298)</f>
         <v>request-form-completion</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="P298" s="27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="25">
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D299" s="25" t="s">
         <v>50</v>
@@ -11020,15 +11389,15 @@
         <v>request-form-completion</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A300" s="25">
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D300" s="25" t="s">
         <v>33</v>
@@ -11045,15 +11414,15 @@
         <v>request-form-completion</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A301" s="25">
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D301" s="25" t="s">
         <v>50</v>
@@ -11070,15 +11439,15 @@
         <v>request-form-completion</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A302" s="25">
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D302" s="25" t="s">
         <v>50</v>
@@ -11095,15 +11464,15 @@
         <v>request-form-completion</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A303" s="25">
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D303" s="25" t="s">
         <v>28</v>
@@ -11120,15 +11489,15 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A304" s="25">
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D304" s="25" t="s">
         <v>33</v>
@@ -11144,16 +11513,19 @@
         <f t="array" ref="N304">SECTION_NAME(B304)</f>
         <v>create-or-update-coverage-information</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P304" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A305" s="25">
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D305" s="25" t="s">
         <v>28</v>
@@ -11170,15 +11542,15 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A306" s="25">
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D306" s="25" t="s">
         <v>157</v>
@@ -11195,15 +11567,15 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" s="25">
         <v>306</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D307" s="25" t="s">
         <v>33</v>
@@ -11220,15 +11592,15 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" s="25">
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C308" s="25" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D308" s="25" t="s">
         <v>28</v>
@@ -11245,15 +11617,15 @@
         <v>launch-smart-application</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="25">
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C309" s="25" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D309" s="25" t="s">
         <v>33</v>
@@ -11269,16 +11641,19 @@
         <f t="array" ref="N309">SECTION_NAME(B309)</f>
         <v>suppressing-guidance</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P309" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" s="25">
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C310" s="25" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D310" s="25" t="s">
         <v>50</v>
@@ -11295,15 +11670,15 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A311" s="25">
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D311" s="25" t="s">
         <v>50</v>
@@ -11320,15 +11695,15 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="25">
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C312" s="25" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D312" s="25" t="s">
         <v>28</v>
@@ -11345,10 +11720,10 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B313" s="33"/>
     </row>
-    <row r="314" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B314" s="33"/>
       <c r="M314" s="30" t="str" cm="1">
         <f t="array" ref="M314">PAGE_NAME(B314)</f>
@@ -11359,7 +11734,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B315" s="33"/>
       <c r="M315" s="30" t="str" cm="1">
         <f t="array" ref="M315">PAGE_NAME(B315)</f>
@@ -11370,7 +11745,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B316" s="33"/>
       <c r="M316" s="30" t="str" cm="1">
         <f t="array" ref="M316">PAGE_NAME(B316)</f>
@@ -11381,7 +11756,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B317" s="33"/>
       <c r="M317" s="30" t="str" cm="1">
         <f t="array" ref="M317">PAGE_NAME(B317)</f>
@@ -11392,7 +11767,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B318" s="33"/>
       <c r="M318" s="30" t="str" cm="1">
         <f t="array" ref="M318">PAGE_NAME(B318)</f>
@@ -11403,7 +11778,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B319" s="33"/>
       <c r="M319" s="30" t="str" cm="1">
         <f t="array" ref="M319">PAGE_NAME(B319)</f>
@@ -11414,7 +11789,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B320" s="33"/>
       <c r="M320" s="30" t="str" cm="1">
         <f t="array" ref="M320">PAGE_NAME(B320)</f>
@@ -12880,83 +13255,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -12984,19 +13359,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13004,13 +13379,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E2" s="23">
         <v>45583</v>
@@ -13034,13 +13409,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -13054,10 +13429,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13068,10 +13443,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -13079,7 +13454,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -13103,15 +13478,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
@@ -13122,6 +13488,15 @@
     <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13379,14 +13754,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -13400,6 +13767,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B452F66-A00F-D34F-886A-0264B992CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617B06AC-60F0-9E4B-A30F-B2C7DFE8AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="760" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="488">
   <si>
     <r>
       <rPr>
@@ -3060,6 +3060,42 @@
   </si>
   <si>
     <t>Card - Request form completion</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@20,24,28,32</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@17-19,21-23,25-27,29-31</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@36,40,44</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@33-35,37-39,41-43</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@48,52,56</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@45-47,49-51,53-55</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@60,64,68,73</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@57-59,61-63,65-67,69-72</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@77,81,85,89,93</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@74-76,78-80,82-84,86-88,90-92</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@4,8,12,16</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@1-3,5-7,9-11,13-15</t>
   </si>
 </sst>
 </file>
@@ -3986,10 +4022,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A219" sqref="A219:A226"/>
+      <selection pane="bottomRight" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8268,6 +8304,9 @@
       <c r="E171" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F171" s="25" t="s">
+        <v>476</v>
+      </c>
       <c r="N171" s="30" t="str" cm="1">
         <f t="array" ref="N171">SECTION_NAME(B172)</f>
         <v>appointment-book</v>
@@ -8289,6 +8328,9 @@
       <c r="E172" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="F172" s="25" t="s">
+        <v>477</v>
+      </c>
       <c r="N172" s="30" t="str" cm="1">
         <f t="array" ref="N172">SECTION_NAME(B173)</f>
         <v>appointment-book</v>
@@ -8620,6 +8662,9 @@
       <c r="E186" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F186" s="25" t="s">
+        <v>478</v>
+      </c>
       <c r="N186" s="30" t="str" cm="1">
         <f t="array" ref="N186">SECTION_NAME(B186)</f>
         <v>encounter-start</v>
@@ -8642,6 +8687,9 @@
       <c r="E187" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="F187" s="25" t="s">
+        <v>479</v>
+      </c>
       <c r="N187" s="30" t="str" cm="1">
         <f t="array" ref="N187">SECTION_NAME(B187)</f>
         <v>encounter-start</v>
@@ -8878,6 +8926,9 @@
       <c r="E197" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F197" s="25" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="198" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A198" s="25">
@@ -8895,6 +8946,9 @@
       <c r="E198" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="F198" s="25" t="s">
+        <v>481</v>
+      </c>
       <c r="P198" s="27" t="s">
         <v>467</v>
       </c>
@@ -9034,6 +9088,9 @@
       <c r="E205" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F205" s="25" t="s">
+        <v>482</v>
+      </c>
       <c r="T205" s="27" t="s">
         <v>285</v>
       </c>
@@ -9054,6 +9111,9 @@
       <c r="E206" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="F206" s="25" t="s">
+        <v>483</v>
+      </c>
       <c r="P206" s="27" t="s">
         <v>470</v>
       </c>
@@ -9136,6 +9196,9 @@
       <c r="E209" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F209" s="25" t="s">
+        <v>484</v>
+      </c>
       <c r="T209" s="27" t="s">
         <v>290</v>
       </c>
@@ -9156,6 +9219,9 @@
       <c r="E210" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="F210" s="25" t="s">
+        <v>485</v>
+      </c>
       <c r="P210" s="27" t="s">
         <v>471</v>
       </c>
@@ -9342,6 +9408,9 @@
       <c r="E218" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="F218" s="25" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="219" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="25">
@@ -9358,6 +9427,9 @@
       </c>
       <c r="E219" s="25" t="s">
         <v>34</v>
+      </c>
+      <c r="F219" s="25" t="s">
+        <v>487</v>
       </c>
       <c r="P219" s="27" t="s">
         <v>472</v>

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617B06AC-60F0-9E4B-A30F-B2C7DFE8AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A3B58-42DD-5049-B4B7-07D172D22508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="760" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -1701,14 +1701,1340 @@
     <t>[In response to an [appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/) hook call, Servers may return] Reminders about additional services that are recommended to be scheduled or booked for the same patient - either as part of the scheduled encounter or as part of additional appointments that could be created at the same time</t>
   </si>
   <si>
-    <t>[For the appointment-book hook] The profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
-  </si>
-  <si>
-    <t>[For the appointment-book hook] The profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[For the appointment-book hook] The profiles expected to be used for the resources resolved to by the … encounterId … are … </t>
+    <t xml:space="preserve">CRD Servers MAY use this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective. </t>
+  </si>
+  <si>
+    <t>CRD clients... SHALL, at minimum, support ... processing the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook.</t>
+  </si>
+  <si>
+    <t>CRD servers SHALL, at minimum, support returning ... the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-start</t>
+  </si>
+  <si>
+    <t>[Servers SHALL support] version 1.0 of the [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/2023SepSTU1Ballot/encounter-start/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/))]</t>
+  </si>
+  <si>
+    <t>[Clients SHALL support] version 1.0 of the [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/2023SepSTU1Ballot/encounter-start/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/))]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This  [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/)] hook would be triggered when a patient is admitted, a patient arrives for an out-patient visit, and/or when a provider first engages with a patient during an encounter. </t>
+  </si>
+  <si>
+    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "requirements related to the intended location and/or participants (e.g. warnings about out-of-network)"]</t>
+  </si>
+  <si>
+    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Requirements related to the service being booked (e.g. Is prior authorization needed? Is the service covered? Is the indication appropriate? Is special documentation required?)"]</t>
+  </si>
+  <si>
+    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Requirements related to the timing of the service (e.g. is the coverage still expected to be in effect? is the service too soon since the last service of that type?)"]</t>
+  </si>
+  <si>
+    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Reminders about additional services that are recommended to be scheduled or booked for the same patient - either as part of the scheduled encounter or as part of additional appointments that could be created at the same time"]</t>
+  </si>
+  <si>
+    <t>CRD Servers MAY use this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-discharge</t>
+  </si>
+  <si>
+    <t>[Servers SHALL support] version 1.0 of the [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/2023SepSTU1Ballot/encounter-discharge/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/))]</t>
+  </si>
+  <si>
+    <t>[Clients SHALL support] version 1.0 of the [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/2023SepSTU1Ballot/encounter-discharge/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/))]</t>
+  </si>
+  <si>
+    <t>This  [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/)] hook would generally be specific to an in-patient encounter and would fire when a provider is performing the discharge process within the CRD Client.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-dispatch</t>
+  </si>
+  <si>
+    <t>[Servers SHALL support] version 1.0 of the [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/2023SepSTU1Ballot/order-dispatch/)] Hook   [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/))]</t>
+  </si>
+  <si>
+    <t>this hook section doesn't provide clear additional requirements like the others do.</t>
+  </si>
+  <si>
+    <t>[Clients SHALL support] version 1.0 of the [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/2023SepSTU1Ballot/order-dispatch/)] Hook   [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/))]</t>
+  </si>
+  <si>
+    <t>CRD Servers MAY use this [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
+  </si>
+  <si>
+    <t>CRD clients and servers SHALL, at minimum, support returning and processing the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[order-dispatch](order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/)] hook</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conditional on supporting the indicated hook.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-sign</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#cards-profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `Card.indicator` SHOULD be populated from the perspective of the clinical decision maker, not the payer. </t>
+  </si>
+  <si>
+    <t>Most Coverage Requirements SHOULD be marked as ‘info’.</t>
+  </si>
+  <si>
+    <t>While failure to procure a prior authorization might be ‘critical’ from the perspective of payment, it would be - at best - a ‘warning’ from the perspective of clinical care. ‘critical’ must be reserved for reporting life or death or serious clinical outcomes. Issues where the proposed course of action will negatively affect the ability of the payer or patient to be reimbursed would generally be a ‘warning’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `Card.source.label` SHOULD be populated with an insurer name that the user and patient would recognize (i.e. the responsible insurer on the patient’s insurance card), including in situations where coverage recommendations are being returned by a benefits manager or intermediary operating the CRD Server on behalf of the payer. </t>
+  </si>
+  <si>
+    <t>If an insurer is providing recommendations from another authority (e.g. a clinical society), the society’s name and logo might be displayed, though usually only with the permission of that organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Card.source.topic` SHALL be populated, and has an [extensible](http://www.hl7.org/fhir/terminologies.html#extensible)  binding to the ValueSet [CRD Card Types](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-cardType.html). </t>
+  </si>
+  <si>
+    <t>`Card.summary` SHOULD provide actionable information. “Coverage alert” would not be very helpful. “Drug not covered. Covered alternatives available” or “Prior authorization required” would be better.</t>
+  </si>
+  <si>
+    <t>`Card.detail` and/or external links SHOULD only be provided when coverage recommendations can’t be clearly provided in the 140-character limit of `Card.summary`.</t>
+  </si>
+  <si>
+    <t>`Card.detail` SHOULD provide graduated information, with critical information being provided in the first paragraph and less critical information towards the end of the page.</t>
+  </si>
+  <si>
+    <t>`card.detail` SHOULD provide enough context that a user can determine whether it is worth the precious seconds to launch an app or external link or not - ideally providing a sense of where to look for and how to use whatever link or app they do launch in the specific context of the order they’re making at the time.</t>
+  </si>
+  <si>
+    <t>Keep the number of cards manageable. Consider whether user workflow will be faster with separate cards for each link or a single card having multiple links. Typically, using the smallest number of cards that still support descriptive actionable summaries is best.</t>
+  </si>
+  <si>
+    <t>When providing links, don’t send the user to the first page of an 80+ page PDF. Keep document size short and/or provide linking directly to the section that is relevant for the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While links are permitted in the markdown content of `Card.detail`, support for this is not universal, so links SHOULD also be provided in `Card.link`. </t>
+  </si>
+  <si>
+    <t>card options SHOULD provide sufficient information for a user to perform record changes manually if automated support isn’t possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where [systemActions](https://cds-hooks.hl7.org/2.0/#system-action) are used, CRD Servers SHOULD NOT return equivalent information in a card for user display. </t>
+  </si>
+  <si>
+    <t>It is the responsibility of the CRD Client to determine how best to present the results of the newly created or revised records.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#potential-crd-response-types</t>
+  </si>
+  <si>
+    <t>conformant CRD Clients SHALL support the [External Reference](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference), … response</t>
+  </si>
+  <si>
+    <t>conformant CRD Clients SHALL support the ... [Instructions](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#instructions), … response</t>
+  </si>
+  <si>
+    <t>conformant CRD Clients SHALL support the... [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information) response</t>
+  </si>
+  <si>
+    <t>conformant CRD Clients... SHOULD support the remaining types [of [Responses](https://cds-hooks.hl7.org/2.0/#cds-service-response)].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: [Coverage](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information)... card types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: ... [External Reference](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference) ... card types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: ... [Instructions](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#instructions) card types </t>
+  </si>
+  <si>
+    <t>Provision of ... decision support cards outside the coverage and documentation requirements space is optional (for both server and client).</t>
+  </si>
+  <si>
+    <t>[A]cceptance of decision support cards outside the coverage and documentation requirements space is optional (for both server and client).</t>
+  </si>
+  <si>
+    <t>CRD Servers that provide decision support for non-coverage/documentation areas SHALL check that the CRD client does not have the information within its store that would allow it to detect the issue itself.</t>
+  </si>
+  <si>
+    <t>[for non-coverage/documentation areas] If the information already exists in the CRD client, then the obligation is on the CRD Client to manage the issue detection and reporting in its own manner and CRD Servers should not get involved.</t>
+  </si>
+  <si>
+    <t>In this case, [where the CRD Client provide resources, such as MedicationRequest, in the CDS Hook request context object] the CDS Client must maintain a stable identifier for these temporary resources to allow CRD responses to refer to them in CDS Hook Actions.</t>
+  </si>
+  <si>
+    <t>When a Coverage Information card type indicating that additional clinical documentation is needed and the CRD client supports DTR, CRD Clients SHALL ensure that clinical users have an opportunity to launch the DTR app as part of the current workflow.</t>
+  </si>
+  <si>
+    <t>Where a Coverage Information indicates that additional administrative documentation is needed, CRD Clients SHOULD allow clinical users to have an opportunity to launch the DTR app</t>
+  </si>
+  <si>
+    <t>Where a Coverage Information indicates that additional administrative documentation is needed, CRD Clients ... SHOULD make it clear that the information to be captured is non-clinical.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference</t>
+  </si>
+  <si>
+    <t>Card with one or more links to external web pages, PDFs, or other resources that provide relevant coverage information ... SHALL have at least one `Card.link`.</t>
+  </si>
+  <si>
+    <t>[For External Reference cards with `Card.link` t]he `Link.type` SHALL have a type of “absolute”.</t>
+  </si>
+  <si>
+    <t>[A]n “External Reference” card [Card with one or more links to external web pages, PDFs, or other resources] SHOULD contain a summary of the actionable information from the external reference.</t>
+  </si>
+  <si>
+    <t>[L]inks provided [in cards with one or more links to external web pages, PDFs, or other resources] SHOULD be ‘deep’ links that take the user to the specific place in the documentation relevant to the current hook context to minimize provider reading and navigation time.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information</t>
+  </si>
+  <si>
+    <t>[For the coverage information response type] qualifiers around when the coverage assertion is considered valid SHALL be included as part of the annotation</t>
+  </si>
+  <si>
+    <t>If a CRD client submits a claim related to an order for which it has received a coverage-information extension for the coverage type associated with the claim, that claim SHALL include the `coverage-assertion-id` and, if applicable, the `satisfied-pa-id` in the X12 837 K3 segment.</t>
+  </si>
+  <si>
+    <t>If multiple extension repetitions are present, all repetitions referencing differing insurance (coverage-information.coverage) SHALL have distinct coverage-assertion-ids and satisfied-pa-ids (if present).</t>
+  </si>
+  <si>
+    <t>Where multiple repetions apply to the same coverage, they *SHALL have the same coverage-assertion-ids and satisfied-pa-ids (if present).</t>
+  </si>
+  <si>
+    <t>Systems MAY fire calls related to orders even if there is already a coverage assertion recorded on the order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[For the coverage information response type] payers SHALL NOT send a system action to update the order [when coverage details have been returned previously] unless something is new. </t>
+  </si>
+  <si>
+    <t>Payers SHOULD take into account the previous decision in deciding how much processing is necessary before returning a response</t>
+  </si>
+  <si>
+    <t>If a coverage-information extension indicates the need to collect additional information (via ‘info-needed’), the extension SHOULD include a reference to the Questionnaire(s) to be completed.</t>
+  </si>
+  <si>
+    <t>If the payer does not support DTR for the type of information needed, the CRD service MAY provide a ‘link’ or ‘information’ card pointing to the forms or portal to use to capture the additional information</t>
+  </si>
+  <si>
+    <t>[Where the CRD service provides a ‘link’ or ‘information’ card] The link SHOULD NOT require user authentication (i.e. no log-on needed) when accessing downloadable forms.</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed ...  appointment being updated SHALL comply with the ... [profile-appointment](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-appointment.html) [profile]</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed [device] order ... being updated SHALL comply with the ... [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html) [profile]</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed [medication]  order ...  being updated SHALL comply with the ... [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) [profile]</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed [nutrition] order ... being updated SHALL comply with the ... [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html) [profile]</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed [service] order … being updated SHALL comply with the ... [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) [profile]</t>
+  </si>
+  <si>
+    <t>When using this [coverage information] response type, the proposed [vision] order … being updated SHALL comply with the ... [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) [profile]</t>
+  </si>
+  <si>
+    <t>CRD clients... SHALL support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc. without any user intervention.</t>
+  </si>
+  <si>
+    <t>CRD ... services SHALL support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc. without any user intervention.</t>
+  </si>
+  <si>
+    <t>In this case, [Where CRD clients and services  support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc.] the discrete information propagated into the order extension SHALL be available to the user for viewing</t>
+  </si>
+  <si>
+    <t>CRD clients MAY be configured to not execute system actions under some circumstances - e.g. if the order has been cancelled/abandoned.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#propose-alternate-request</t>
+  </si>
+  <si>
+    <t>[for the Propose Alternate Request response type] Each suggestion SHOULD contain either a single “update” action to revise the existing proposed order; or a “delete” action for the current proposed order and a “create” action for the new proposed order</t>
+  </si>
+  <si>
+    <t>The choice of “update” vs. “delete + create” SHOULD be based on how significant the change is and how relevant other decision support on the original request will still be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-device](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-device.html) profile 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [device] orders (and any associated resources) SHALL comply with the [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html)  profile 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [encounter] orders (and any associated resources) SHALL comply with the [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html) profile 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [medication] orders (and any associated resources) SHALL comply with the [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) profile [and referenced Medications SHALL comply with the [us-core-medication](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-medication.html) profile.]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [nutrition] orders (and any associated resources) SHALL comply with the [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html)  profile 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [service] orders (and any associated resources) SHALL comply with the [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)  profile 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [vision] orders (and any associated resources) SHALL comply with the [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) profile 
+</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#identify-additional-orders-as-companionsprerequisites-for-current-order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [communication] orders (and any associated resources) SHALL comply with the [profile-communicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-communicationrequest.html) profile 
+</t>
+  </si>
+  <si>
+    <t>When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html)  profile [and referenced devices SHALL comply with the [profile-device](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-device.html) profile]</t>
+  </si>
+  <si>
+    <t>When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) profile [and referenced medications SHALL comply with the [us-core-medication](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-medication.html) profile]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [service] orders (and any associated resources) SHALL comply with the [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)  profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [vision] orders (and any associated resources) SHALL comply with the [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) profile 
+</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#request-form-completion</t>
+  </si>
+  <si>
+    <t>Instead of using a card, [for the Request form completion response type] CRD services MAY opt to use a [systemAction](https://cds-hooks.hl7.org/2.0/#system-action) instead</t>
+  </si>
+  <si>
+    <t>CRD clients supporting this [Request form completion] card type  SHALL support either approach [Card or systemAction]</t>
+  </si>
+  <si>
+    <t>This [Request form completion] card type SHOULD only be used when DTR is not available or applicable</t>
+  </si>
+  <si>
+    <t>When using this [Request form completion] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-taskquestionaire](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-taskquestionnaire.html) profile</t>
+  </si>
+  <si>
+    <t>[for the Request form completion response type] CRD Servers SHOULD use questionnaires that are compliant with either the [Argonaut Questionnaire profiles](https://github.com/argonautproject/questionnaire) (for forms to be completed within the CRD client) or the [Structured Data Capture profiles](http://hl7.org/fhir/uv/sdc/index.html) (for more sophisticated forms to be created within a SMART on FHIR app or through an external service).</t>
+  </si>
+  <si>
+    <t>[for the Request form completion response type] CRD Clients SHOULD retain a copy of all completed forms for future reference.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#create-or-update-coverage-information</t>
+  </si>
+  <si>
+    <t>Instead of using a card, [for the Create or update coverage information response type] CRD services MAY opt to use a [systemAction](https://cds-hooks.hl7.org/2.0/#system-action) instead</t>
+  </si>
+  <si>
+    <t>CRD clients supporting this [Create or update coverage information] card type  SHALL support either approach [Card or systemAction]</t>
+  </si>
+  <si>
+    <t>[for the Create or update coverage information response type] If receiving a system action, a CRD client MAY opt to place the new or updated record in a holding area for human review rather than directly modifying their source of truth.</t>
+  </si>
+  <si>
+    <t>This [Create or update coverage information] CRD capability SHALL NOT be used in situations where regulation dictates the use of the X12 functionality.</t>
+  </si>
+  <si>
+    <t>This [Create or update coverage information] response will contain a single suggestion. The primary action will either be a suggestion to “update” an existing Coverage instance (if the CRD Client already has one) or to “create” a new Coverage instance if the CRD Server is aware of Coverage that the CRD Client is not.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#launch-smart-application</t>
+  </si>
+  <si>
+    <t>This [Launch SMART application] response type can cause the launching of ... [SMART] apps to occur in the context in which they are relevant to patient care and/or to payment-related decision-making</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/implementation.html#suppressing-guidance</t>
+  </si>
+  <si>
+    <t>Clients that [suppress certain types of payer guidance as being the ‘default’ presumption. E.g. “Covered, no prior authorization required”] … SHALL mitigate this potential for misinterpretation.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/implementation.html#impact-on-payer-processes</t>
+  </si>
+  <si>
+    <t>CRD Servers will need to support … clinical terminologies [passed to the CRD server by the client]  or map them to internally used billing terminologies when determining decision support results - such as whether a therapy is covered or requires prior authorization.</t>
+  </si>
+  <si>
+    <t>Services will also need to consider that the mapping they perform between clinical terminologies and billing codes may be different than the bill coding process performed by the client system when claims are eventually submitted. This may mean that assertions about coverage or prior authorization requirements will need to be expressed conditionally. E.g. “Provided this service is billed as X, Y or Z, then prior authorization is not needed”.</t>
+  </si>
+  <si>
+    <t>In situations where CRD Clients are aware of the likely billing codes at the time of ordering, they MAY send these codes as additional CodeableConcept.coding repetitions to assist in server processing.</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-crd_2.0.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Coverage Requirements Discovery Requirements</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft </t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright Label</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Summary of changes</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>&lt;Mir Ali&gt;</t>
+  </si>
+  <si>
+    <t>Mali@mitre.org</t>
+  </si>
+  <si>
+    <t>Initial input of requirements</t>
+  </si>
+  <si>
+    <t>Conformance</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>ATTESTATION</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>OUT OF SCOPE</t>
+  </si>
+  <si>
+    <t>If Coverage Information is returned for these [`secondary` [Orders Select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select), [Encounter Start](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-start), and [Encounter Discharge](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-discharge)] hooks, it SHALL NOT include messages indicating a need for [clinical](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-AdditionalDocumentation.html) or [administrative](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-AdditionalDocumentation.html) information, as such information is expected to be made available later in the process and therefore such guidance is not useful.</t>
+  </si>
+  <si>
+    <t>Not creating or linking to sub-requirements for HRex security rules as these are currently handled as attestations.</t>
+  </si>
+  <si>
+    <t>For this release of the IG, conformant CRD clients SHOULD support the CDS Hooks [prefetch]( https://cds-hooks.hl7.org/2.0/#prefetch-template) capability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The unique identifier for the requirement. IDs are short, meaningless (they do not contain context like section numbers), and numeric. An approach is incrementing integers. See below for how to handle IDs for child requirements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: ID -&gt; Requirements.statement.key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URL*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The URL of the deepest section that contains the requirement. The URL provides context for the requirement text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: URL -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Requirements.statement.reference
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Requirement*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A direct quote from the IG. Add any clarifications or interpretations in a helper column like the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column. May include helpful context in square brackets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Requirement -&gt; Requirements.statement.requirement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conformance*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The conformance verb of the requirement: SHALL, SHOULD, MAY, SHOULD NOT, SHALL NOT and DEPRECATED (see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Further Consideration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below for when to use DEPRECATED).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Conformance -&gt; Requirements.statement.conformance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actor*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The actor, or actors, that the requirement constrains. The values will depend on the target specification, e.g., for Subscriptions (https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/actors.html), Client and Server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Actor -&gt; Requirements.actor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sub-requirement(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The requirement set id and requirement id(s) of external requirements that are referenced by this requirement. This column will only be used when this requirements document points to requirements from a different requirement set.  For example, PDex references US Core. When creating the requirements for the PDex test kit, the US Core requirement set id will be noted in this column for the PDex requirement(s) that reference US Core.
+Format: &lt;requirement set id&gt;@&lt;list of requirement ids and ranges&gt;. E.g., the requirement set with id "hl7.fhir.us.davinci-drug-formulary_2.0.1" and requirement id "40", "41", "42", and "50"  would get referenced by "hl7.fhir.us.davinci-drug-formulary_2.0.1@40-42,50"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Sub-requirements -&gt; Requirements.statement.parent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conditionality
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Whether or not the requirement is conditional on a prerequisite clause. An example of a conditional requirement is, "If the value is X, then the server SHALL do Y." Note: A blank value carries no information and does not indicate if </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conditionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is true or false.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Conditionality -&gt; Requirements.statement.conditionality.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verifiable?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A determination as to whether this requirement can be verified:: 'No' - the requirement cannot be verified, e.g., because it is not specific enough; 'Yes' - the requirement can be verified using mechanical means or an attestation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verifiability Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Details explaining the answer in the Verifiable? column, typically providing a rationale for why a given requirement will not be tested.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planning To Test?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A determination as to whether this requirement will be tested. It might not be tested because it conflicts with another requirement or because it is a MAY requirement without any sub requirements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planning To Test Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Details explaining the answer in the Planning To Test? column, typically providing a rationale for why a given requirement will not be tested.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapping: none</t>
+    </r>
+  </si>
+  <si>
+    <t>Actors*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metadata
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The metadata provides identifying information and context for the collection of requirements. 
+Filling out these fields is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+These fields map directly to the R5 Requirements fields.
+Suggested values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Id: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;inferno base url&gt;/&lt;Name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;Implementation Guide title / Source document title&gt; Requirements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: draft
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Publisher:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inferno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
+http://www.apache.org/licenses/LICENSE-2.0
+Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright Label: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright (c) &lt;year&gt; The MITRE Corporation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reference:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Implementation Guide URL&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interpreted as a SHOULD because It is a "strong" recommendation.</t>
+  </si>
+  <si>
+    <t>The requirements around prefetch and FHIR resource queries are not stated very clearly and it is difficult to decide which actor(s) to associate them with. Server was chosen on the idea that there are other places that tell the client that they need to support the FHIR API, e.g., the capability statement
+"can" often gets interpreted as MAY, but here the workflow doesn't complete if the server doesn't get information it needs, so interpreted as SHOULD.</t>
+  </si>
+  <si>
+    <t>STU Note from the IG:
+This proposed pre-adoption is not CDS Hooks conformant. It is possible that the CDS Hooks community will adopt an alternative solution or choose not to make any changes. Community discussion about this proposal can be found on the CDS Hooks issue list here and in Jira here. This implementation guide will be updated to align with the decision of the community and might, if necessary, fall back to the use of extensions if CDS Hooks does not choose to support prefetch based on context resources and the payer community determines that prefetch is still required.
+In addition to this preadoption, this implementation guide presumes support for prefetch query capabilities more sophisticated than the recommended prefetch query restrictions in the CDS Hooks specification. Specifically, the use of _include, as seen in the example above. It also uses a query-like mechanism to reference 'draft' orders that might not yet be available in the CRD client's repository for query, which will require query-like functionality to be implemented against in-memory objects.</t>
+  </si>
+  <si>
+    <t>raw text: "The advice returned for this hook would include the same sorts of advice as provided for using appointment-book. However, the hook is still necessary because not all encounters will be the result of appointments, not all systems that schedule appointments will necessarily have checked for coverage requirements, and the patient’s circumstances and/or coverage as well as the payer’s guidelines could have evolved since the appointment was scheduled"</t>
+  </si>
+  <si>
+    <t>this is text describing and the requirement is actually in requirement 135, so marked as DEPRECATED.</t>
+  </si>
+  <si>
+    <t>conditional on requirement 20: if clients allow users to continue their workflow before long-running CRD results return, then this is a requirement.</t>
+  </si>
+  <si>
+    <t>[Clients SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
+  </si>
+  <si>
+    <t>[Servers SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Servers SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Clients SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
+  </si>
+  <si>
+    <t>Coverage requirements [returned from the [order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD be limited only to those resources that are included in the `selections` context</t>
+  </si>
+  <si>
+    <t>the content of other [resources that are not included in the `selections` context] resources  [[for the order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD also be considered before making recommendations about what additional actions are necessary. (I.e. don’t recommend an action if there’s already a draft order to perform that action.)</t>
+  </si>
+  <si>
+    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the `patientId` [are] [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
+  </si>
+  <si>
+    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the … `encounterId` [are] [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[for the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html), [and] [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) </t>
+  </si>
+  <si>
+    <t>While this [order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.</t>
+  </si>
+  <si>
+    <t>This [[order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook MAY be used in scenarios that don’t involve creating a true order</t>
+  </si>
+  <si>
+    <t>[[For the order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] It’s appropriate to provide warnings if there is insufficient information to determine coverage requirements.</t>
+  </si>
+  <si>
+    <t>CRD Servers MAY use this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
+  </si>
+  <si>
+    <t>CRD clients ... SHALL, at minimum, support … processing the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
+  </si>
+  <si>
+    <t>CRD... servers SHALL, at minimum, support returning ... the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the `patientId`are [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the … `encounterId` are [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html),  [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)]</t>
+  </si>
+  <si>
+    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: while this hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.]</t>
+  </si>
+  <si>
+    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should v]erify that documentation requirements for the services performed have been met to ensure the services provided can be reimbursed</t>
+  </si>
+  <si>
+    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should e]nsure that required follow-up planning is complete and appropriate transfer of care has been arranged, particularly for accountable care models</t>
+  </si>
+  <si>
+    <t>FHIR API</t>
+  </si>
+  <si>
+    <t>User Interaction</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Prefetch</t>
+  </si>
+  <si>
+    <t>What if</t>
+  </si>
+  <si>
+    <t>CRD Request</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>CRD Configuration</t>
+  </si>
+  <si>
+    <t>Resource creation</t>
+  </si>
+  <si>
+    <t>User interaction</t>
+  </si>
+  <si>
+    <t>Deprecated because this is a detail that implementers need to be aware of and handle based on internal implementation choices, but that an external system performing verification won't see or need to check explicitly. 72 is the real requirement.</t>
+  </si>
+  <si>
+    <t>Hook - appointment-book</t>
+  </si>
+  <si>
+    <t>Hook - encounter-start</t>
+  </si>
+  <si>
+    <t>Card - External reference</t>
+  </si>
+  <si>
+    <t>Card - Coverage information</t>
+  </si>
+  <si>
+    <t>Hook - encounter-discharge</t>
+  </si>
+  <si>
+    <t>Card - Identify additional orders</t>
+  </si>
+  <si>
+    <t>Card - Instructions</t>
+  </si>
+  <si>
+    <t>Hook - order-dispatch</t>
+  </si>
+  <si>
+    <t>Hook - order-select</t>
+  </si>
+  <si>
+    <t>Hook - order-sign</t>
+  </si>
+  <si>
+    <t>Card - Propose alternate request</t>
+  </si>
+  <si>
+    <t>Card - Create or update coverage information</t>
+  </si>
+  <si>
+    <t>Card - Request form completion</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@20,24,28,32</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@17-19,21-23,25-27,29-31</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@36,40,44</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@33-35,37-39,41-43</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@48,52,56</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@45-47,49-51,53-55</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@60,64,68,73</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@57-59,61-63,65-67,69-72</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@77,81,85,89,93</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@74-76,78-80,82-84,86-88,90-92</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@4,8,12,16</t>
+  </si>
+  <si>
+    <t>cds-hooks-library_1.0.1@1-3,5-7,9-11,13-15</t>
+  </si>
+  <si>
+    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook t]he profiles expected to be used for the resources resolved to by the … encounterId … are … [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
+  </si>
+  <si>
+    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook t]he profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
+  </si>
+  <si>
+    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook t]he profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
+  </si>
+  <si>
+    <t>[For the enounter-start hook t]he profiles expected to be used for the resources resolved to by the … encounterId … are … [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
+  </si>
+  <si>
+    <t>[For the enounter-start hook t]he profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
+  </si>
+  <si>
+    <t>[For the enounter-start hook t]he profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
+  </si>
+  <si>
+    <t>While this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/2023SepSTU1Ballot/appointment-book/)] hook supports userIds of Patient and RelatedPerson, for CRD purposes it is enough to support Practitioner and PractitionerRole. [For the appointment-book hook] support for Patient and RelatedPerson as users is optional [([published v1.0 link](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/))]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[For the appointment-book hook t]he profiles expected to be used for the resources resolved to by the … encounterId … are … </t>
     </r>
     <r>
       <rPr>
@@ -1731,8 +3057,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>[for the appointment-book hook] The profiles expected to be used for the resources resolved to by the … `appointments` … are …</t>
+    <t>[For the appointment-book hook t]he profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
+  </si>
+  <si>
+    <t>[For the appointment-book hook t]he profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
+  </si>
+  <si>
+    <r>
+      <t>[For the appointment-book hook t]he profiles expected to be used for the resources resolved to by the … `appointments` … are …</t>
     </r>
     <r>
       <rPr>
@@ -1764,1338 +3096,6 @@
       </rPr>
       <t>](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-appointment.html)</t>
     </r>
-  </si>
-  <si>
-    <t>While this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/2023SepSTU1Ballot/appointment-book/)] hook supports userIds of Patient and RelatedPerson, for CRD purposes it is enough to support Practitioner and PractitionerRole. [For the appointment-book hooks] upport for Patient and RelatedPerson as users is optional [([published v1.0 link](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/))]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD Servers MAY use this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective. </t>
-  </si>
-  <si>
-    <t>CRD clients... SHALL, at minimum, support ... processing the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook.</t>
-  </si>
-  <si>
-    <t>CRD servers SHALL, at minimum, support returning ... the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[appointment-book](https://cds-hooks.hl7.org/hooks/appointment-book/STU1/appointment-book/)]  hook.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-start</t>
-  </si>
-  <si>
-    <t>[Servers SHALL support] version 1.0 of the [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/2023SepSTU1Ballot/encounter-start/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/))]</t>
-  </si>
-  <si>
-    <t>[Clients SHALL support] version 1.0 of the [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/2023SepSTU1Ballot/encounter-start/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/))]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This  [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start/)] hook would be triggered when a patient is admitted, a patient arrives for an out-patient visit, and/or when a provider first engages with a patient during an encounter. </t>
-  </si>
-  <si>
-    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "requirements related to the intended location and/or participants (e.g. warnings about out-of-network)"]</t>
-  </si>
-  <si>
-    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Requirements related to the service being booked (e.g. Is prior authorization needed? Is the service covered? Is the indication appropriate? Is special documentation required?)"]</t>
-  </si>
-  <si>
-    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Requirements related to the timing of the service (e.g. is the coverage still expected to be in effect? is the service too soon since the last service of that type?)"]</t>
-  </si>
-  <si>
-    <t>The advice returned [by servers] for this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook would include the same sorts of advice as provided for using appointment-book [including: "Reminders about additional services that are recommended to be scheduled or booked for the same patient - either as part of the scheduled encounter or as part of additional appointments that could be created at the same time"]</t>
-  </si>
-  <si>
-    <t>[For the enounter-start hook] The profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
-  </si>
-  <si>
-    <t>[For the enounter-start hook] The profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
-  </si>
-  <si>
-    <t>[For the enounter-start hook] The profiles expected to be used for the resources resolved to by the … encounterId … are … [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
-  </si>
-  <si>
-    <t>CRD Servers MAY use this [[encounter-start](https://cds-hooks.hl7.org/hooks/encounter-start/STU1/encounter-start)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-discharge</t>
-  </si>
-  <si>
-    <t>[Servers SHALL support] version 1.0 of the [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/2023SepSTU1Ballot/encounter-discharge/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/))]</t>
-  </si>
-  <si>
-    <t>[Clients SHALL support] version 1.0 of the [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/2023SepSTU1Ballot/encounter-discharge/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/))]</t>
-  </si>
-  <si>
-    <t>This  [[encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/)] hook would generally be specific to an in-patient encounter and would fire when a provider is performing the discharge process within the CRD Client.</t>
-  </si>
-  <si>
-    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook] The profiles expected to be used for the resources resolved to by the userId … are … [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html) [or] [us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)</t>
-  </si>
-  <si>
-    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook] The profiles expected to be used for the resources resolved to by the … patientId … are … [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
-  </si>
-  <si>
-    <t>[for the [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook] The profiles expected to be used for the resources resolved to by the … encounterId … are … [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-dispatch</t>
-  </si>
-  <si>
-    <t>[Servers SHALL support] version 1.0 of the [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/2023SepSTU1Ballot/order-dispatch/)] Hook   [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/))]</t>
-  </si>
-  <si>
-    <t>this hook section doesn't provide clear additional requirements like the others do.</t>
-  </si>
-  <si>
-    <t>[Clients SHALL support] version 1.0 of the [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/2023SepSTU1Ballot/order-dispatch/)] Hook   [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/))]</t>
-  </si>
-  <si>
-    <t>CRD Servers MAY use this [[order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
-  </si>
-  <si>
-    <t>CRD clients and servers SHALL, at minimum, support returning and processing the [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-ext-coverage-information.html) system action for all invocations of this [[order-dispatch](order-dispatch](https://cds-hooks.hl7.org/hooks/order-dispatch/STU1/order-dispatch/)] hook</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conditional on supporting the indicated hook.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-sign</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#cards-profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `Card.indicator` SHOULD be populated from the perspective of the clinical decision maker, not the payer. </t>
-  </si>
-  <si>
-    <t>Most Coverage Requirements SHOULD be marked as ‘info’.</t>
-  </si>
-  <si>
-    <t>While failure to procure a prior authorization might be ‘critical’ from the perspective of payment, it would be - at best - a ‘warning’ from the perspective of clinical care. ‘critical’ must be reserved for reporting life or death or serious clinical outcomes. Issues where the proposed course of action will negatively affect the ability of the payer or patient to be reimbursed would generally be a ‘warning’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `Card.source.label` SHOULD be populated with an insurer name that the user and patient would recognize (i.e. the responsible insurer on the patient’s insurance card), including in situations where coverage recommendations are being returned by a benefits manager or intermediary operating the CRD Server on behalf of the payer. </t>
-  </si>
-  <si>
-    <t>If an insurer is providing recommendations from another authority (e.g. a clinical society), the society’s name and logo might be displayed, though usually only with the permission of that organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Card.source.topic` SHALL be populated, and has an [extensible](http://www.hl7.org/fhir/terminologies.html#extensible)  binding to the ValueSet [CRD Card Types](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-cardType.html). </t>
-  </si>
-  <si>
-    <t>`Card.summary` SHOULD provide actionable information. “Coverage alert” would not be very helpful. “Drug not covered. Covered alternatives available” or “Prior authorization required” would be better.</t>
-  </si>
-  <si>
-    <t>`Card.detail` and/or external links SHOULD only be provided when coverage recommendations can’t be clearly provided in the 140-character limit of `Card.summary`.</t>
-  </si>
-  <si>
-    <t>`Card.detail` SHOULD provide graduated information, with critical information being provided in the first paragraph and less critical information towards the end of the page.</t>
-  </si>
-  <si>
-    <t>`card.detail` SHOULD provide enough context that a user can determine whether it is worth the precious seconds to launch an app or external link or not - ideally providing a sense of where to look for and how to use whatever link or app they do launch in the specific context of the order they’re making at the time.</t>
-  </si>
-  <si>
-    <t>Keep the number of cards manageable. Consider whether user workflow will be faster with separate cards for each link or a single card having multiple links. Typically, using the smallest number of cards that still support descriptive actionable summaries is best.</t>
-  </si>
-  <si>
-    <t>When providing links, don’t send the user to the first page of an 80+ page PDF. Keep document size short and/or provide linking directly to the section that is relevant for the context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While links are permitted in the markdown content of `Card.detail`, support for this is not universal, so links SHOULD also be provided in `Card.link`. </t>
-  </si>
-  <si>
-    <t>card options SHOULD provide sufficient information for a user to perform record changes manually if automated support isn’t possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where [systemActions](https://cds-hooks.hl7.org/2.0/#system-action) are used, CRD Servers SHOULD NOT return equivalent information in a card for user display. </t>
-  </si>
-  <si>
-    <t>It is the responsibility of the CRD Client to determine how best to present the results of the newly created or revised records.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#potential-crd-response-types</t>
-  </si>
-  <si>
-    <t>conformant CRD Clients SHALL support the [External Reference](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference), … response</t>
-  </si>
-  <si>
-    <t>conformant CRD Clients SHALL support the ... [Instructions](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#instructions), … response</t>
-  </si>
-  <si>
-    <t>conformant CRD Clients SHALL support the... [Coverage Information](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information) response</t>
-  </si>
-  <si>
-    <t>conformant CRD Clients... SHOULD support the remaining types [of [Responses](https://cds-hooks.hl7.org/2.0/#cds-service-response)].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: [Coverage](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information)... card types </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: ... [External Reference](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference) ... card types </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD Servers SHALL, at minimum, demonstrate an ability to return cards with the following type: ... [Instructions](https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#instructions) card types </t>
-  </si>
-  <si>
-    <t>Provision of ... decision support cards outside the coverage and documentation requirements space is optional (for both server and client).</t>
-  </si>
-  <si>
-    <t>[A]cceptance of decision support cards outside the coverage and documentation requirements space is optional (for both server and client).</t>
-  </si>
-  <si>
-    <t>CRD Servers that provide decision support for non-coverage/documentation areas SHALL check that the CRD client does not have the information within its store that would allow it to detect the issue itself.</t>
-  </si>
-  <si>
-    <t>[for non-coverage/documentation areas] If the information already exists in the CRD client, then the obligation is on the CRD Client to manage the issue detection and reporting in its own manner and CRD Servers should not get involved.</t>
-  </si>
-  <si>
-    <t>In this case, [where the CRD Client provide resources, such as MedicationRequest, in the CDS Hook request context object] the CDS Client must maintain a stable identifier for these temporary resources to allow CRD responses to refer to them in CDS Hook Actions.</t>
-  </si>
-  <si>
-    <t>When a Coverage Information card type indicating that additional clinical documentation is needed and the CRD client supports DTR, CRD Clients SHALL ensure that clinical users have an opportunity to launch the DTR app as part of the current workflow.</t>
-  </si>
-  <si>
-    <t>Where a Coverage Information indicates that additional administrative documentation is needed, CRD Clients SHOULD allow clinical users to have an opportunity to launch the DTR app</t>
-  </si>
-  <si>
-    <t>Where a Coverage Information indicates that additional administrative documentation is needed, CRD Clients ... SHOULD make it clear that the information to be captured is non-clinical.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#external-reference</t>
-  </si>
-  <si>
-    <t>Card with one or more links to external web pages, PDFs, or other resources that provide relevant coverage information ... SHALL have at least one `Card.link`.</t>
-  </si>
-  <si>
-    <t>[For External Reference cards with `Card.link` t]he `Link.type` SHALL have a type of “absolute”.</t>
-  </si>
-  <si>
-    <t>[A]n “External Reference” card [Card with one or more links to external web pages, PDFs, or other resources] SHOULD contain a summary of the actionable information from the external reference.</t>
-  </si>
-  <si>
-    <t>[L]inks provided [in cards with one or more links to external web pages, PDFs, or other resources] SHOULD be ‘deep’ links that take the user to the specific place in the documentation relevant to the current hook context to minimize provider reading and navigation time.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#coverage-information</t>
-  </si>
-  <si>
-    <t>[For the coverage information response type] qualifiers around when the coverage assertion is considered valid SHALL be included as part of the annotation</t>
-  </si>
-  <si>
-    <t>If a CRD client submits a claim related to an order for which it has received a coverage-information extension for the coverage type associated with the claim, that claim SHALL include the `coverage-assertion-id` and, if applicable, the `satisfied-pa-id` in the X12 837 K3 segment.</t>
-  </si>
-  <si>
-    <t>If multiple extension repetitions are present, all repetitions referencing differing insurance (coverage-information.coverage) SHALL have distinct coverage-assertion-ids and satisfied-pa-ids (if present).</t>
-  </si>
-  <si>
-    <t>Where multiple repetions apply to the same coverage, they *SHALL have the same coverage-assertion-ids and satisfied-pa-ids (if present).</t>
-  </si>
-  <si>
-    <t>Systems MAY fire calls related to orders even if there is already a coverage assertion recorded on the order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[For the coverage information response type] payers SHALL NOT send a system action to update the order [when coverage details have been returned previously] unless something is new. </t>
-  </si>
-  <si>
-    <t>Payers SHOULD take into account the previous decision in deciding how much processing is necessary before returning a response</t>
-  </si>
-  <si>
-    <t>If a coverage-information extension indicates the need to collect additional information (via ‘info-needed’), the extension SHOULD include a reference to the Questionnaire(s) to be completed.</t>
-  </si>
-  <si>
-    <t>If the payer does not support DTR for the type of information needed, the CRD service MAY provide a ‘link’ or ‘information’ card pointing to the forms or portal to use to capture the additional information</t>
-  </si>
-  <si>
-    <t>[Where the CRD service provides a ‘link’ or ‘information’ card] The link SHOULD NOT require user authentication (i.e. no log-on needed) when accessing downloadable forms.</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed ...  appointment being updated SHALL comply with the ... [profile-appointment](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-appointment.html) [profile]</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed [device] order ... being updated SHALL comply with the ... [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html) [profile]</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed [medication]  order ...  being updated SHALL comply with the ... [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) [profile]</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed [nutrition] order ... being updated SHALL comply with the ... [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html) [profile]</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed [service] order … being updated SHALL comply with the ... [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) [profile]</t>
-  </si>
-  <si>
-    <t>When using this [coverage information] response type, the proposed [vision] order … being updated SHALL comply with the ... [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) [profile]</t>
-  </si>
-  <si>
-    <t>CRD clients... SHALL support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc. without any user intervention.</t>
-  </si>
-  <si>
-    <t>CRD ... services SHALL support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc. without any user intervention.</t>
-  </si>
-  <si>
-    <t>In this case, [Where CRD clients and services  support the new CDS Hooks system action functionality to cause annotations to automatically be stored on the relevant request, appointment, etc.] the discrete information propagated into the order extension SHALL be available to the user for viewing</t>
-  </si>
-  <si>
-    <t>CRD clients MAY be configured to not execute system actions under some circumstances - e.g. if the order has been cancelled/abandoned.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#propose-alternate-request</t>
-  </si>
-  <si>
-    <t>[for the Propose Alternate Request response type] Each suggestion SHOULD contain either a single “update” action to revise the existing proposed order; or a “delete” action for the current proposed order and a “create” action for the new proposed order</t>
-  </si>
-  <si>
-    <t>The choice of “update” vs. “delete + create” SHOULD be based on how significant the change is and how relevant other decision support on the original request will still be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-device](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-device.html) profile 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [device] orders (and any associated resources) SHALL comply with the [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html)  profile 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [encounter] orders (and any associated resources) SHALL comply with the [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html) profile 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [medication] orders (and any associated resources) SHALL comply with the [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) profile [and referenced Medications SHALL comply with the [us-core-medication](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-medication.html) profile.]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [nutrition] orders (and any associated resources) SHALL comply with the [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html)  profile 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [service] orders (and any associated resources) SHALL comply with the [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)  profile 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Propose alternate request] response type, the proposed [vision] orders (and any associated resources) SHALL comply with the [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) profile 
-</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#identify-additional-orders-as-companionsprerequisites-for-current-order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [communication] orders (and any associated resources) SHALL comply with the [profile-communicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-communicationrequest.html) profile 
-</t>
-  </si>
-  <si>
-    <t>When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html)  profile [and referenced devices SHALL comply with the [profile-device](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-device.html) profile]</t>
-  </si>
-  <si>
-    <t>When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html) profile [and referenced medications SHALL comply with the [us-core-medication](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-medication.html) profile]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [service] orders (and any associated resources) SHALL comply with the [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)  profile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using this [Identify additional orders as companions/prerequisites for current order] response type, the proposed [vision] orders (and any associated resources) SHALL comply with the [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html) profile 
-</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#request-form-completion</t>
-  </si>
-  <si>
-    <t>Instead of using a card, [for the Request form completion response type] CRD services MAY opt to use a [systemAction](https://cds-hooks.hl7.org/2.0/#system-action) instead</t>
-  </si>
-  <si>
-    <t>CRD clients supporting this [Request form completion] card type  SHALL support either approach [Card or systemAction]</t>
-  </si>
-  <si>
-    <t>This [Request form completion] card type SHOULD only be used when DTR is not available or applicable</t>
-  </si>
-  <si>
-    <t>When using this [Request form completion] response type, the proposed orders (and any associated resources) SHALL comply with the [profile-taskquestionaire](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-taskquestionnaire.html) profile</t>
-  </si>
-  <si>
-    <t>[for the Request form completion response type] CRD Servers SHOULD use questionnaires that are compliant with either the [Argonaut Questionnaire profiles](https://github.com/argonautproject/questionnaire) (for forms to be completed within the CRD client) or the [Structured Data Capture profiles](http://hl7.org/fhir/uv/sdc/index.html) (for more sophisticated forms to be created within a SMART on FHIR app or through an external service).</t>
-  </si>
-  <si>
-    <t>[for the Request form completion response type] CRD Clients SHOULD retain a copy of all completed forms for future reference.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#create-or-update-coverage-information</t>
-  </si>
-  <si>
-    <t>Instead of using a card, [for the Create or update coverage information response type] CRD services MAY opt to use a [systemAction](https://cds-hooks.hl7.org/2.0/#system-action) instead</t>
-  </si>
-  <si>
-    <t>CRD clients supporting this [Create or update coverage information] card type  SHALL support either approach [Card or systemAction]</t>
-  </si>
-  <si>
-    <t>[for the Create or update coverage information response type] If receiving a system action, a CRD client MAY opt to place the new or updated record in a holding area for human review rather than directly modifying their source of truth.</t>
-  </si>
-  <si>
-    <t>This [Create or update coverage information] CRD capability SHALL NOT be used in situations where regulation dictates the use of the X12 functionality.</t>
-  </si>
-  <si>
-    <t>This [Create or update coverage information] response will contain a single suggestion. The primary action will either be a suggestion to “update” an existing Coverage instance (if the CRD Client already has one) or to “create” a new Coverage instance if the CRD Server is aware of Coverage that the CRD Client is not.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/cards.html#launch-smart-application</t>
-  </si>
-  <si>
-    <t>This [Launch SMART application] response type can cause the launching of ... [SMART] apps to occur in the context in which they are relevant to patient care and/or to payment-related decision-making</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/implementation.html#suppressing-guidance</t>
-  </si>
-  <si>
-    <t>Clients that [suppress certain types of payer guidance as being the ‘default’ presumption. E.g. “Covered, no prior authorization required”] … SHALL mitigate this potential for misinterpretation.</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/implementation.html#impact-on-payer-processes</t>
-  </si>
-  <si>
-    <t>CRD Servers will need to support … clinical terminologies [passed to the CRD server by the client]  or map them to internally used billing terminologies when determining decision support results - such as whether a therapy is covered or requires prior authorization.</t>
-  </si>
-  <si>
-    <t>Services will also need to consider that the mapping they perform between clinical terminologies and billing codes may be different than the bill coding process performed by the client system when claims are eventually submitted. This may mean that assertions about coverage or prior authorization requirements will need to be expressed conditionally. E.g. “Provided this service is billed as X, Y or Z, then prior authorization is not needed”.</t>
-  </si>
-  <si>
-    <t>In situations where CRD Clients are aware of the likely billing codes at the time of ordering, they MAY send these codes as additional CodeableConcept.coding repetitions to assist in server processing.</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>hl7.fhir.us.davinci-crd_2.0.1</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Coverage Requirements Discovery Requirements</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draft </t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Copyright Label</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-crd/STU2/</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Summary of changes</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>&lt;Mir Ali&gt;</t>
-  </si>
-  <si>
-    <t>Mali@mitre.org</t>
-  </si>
-  <si>
-    <t>Initial input of requirements</t>
-  </si>
-  <si>
-    <t>Conformance</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>ATTESTATION</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>AUTOMATION</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>OUT OF SCOPE</t>
-  </si>
-  <si>
-    <t>If Coverage Information is returned for these [`secondary` [Orders Select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select), [Encounter Start](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-start), and [Encounter Discharge](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#encounter-discharge)] hooks, it SHALL NOT include messages indicating a need for [clinical](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-AdditionalDocumentation.html) or [administrative](https://hl7.org/fhir/us/davinci-crd/STU2/ValueSet-AdditionalDocumentation.html) information, as such information is expected to be made available later in the process and therefore such guidance is not useful.</t>
-  </si>
-  <si>
-    <t>Not creating or linking to sub-requirements for HRex security rules as these are currently handled as attestations.</t>
-  </si>
-  <si>
-    <t>For this release of the IG, conformant CRD clients SHOULD support the CDS Hooks [prefetch]( https://cds-hooks.hl7.org/2.0/#prefetch-template) capability</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ID*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The unique identifier for the requirement. IDs are short, meaningless (they do not contain context like section numbers), and numeric. An approach is incrementing integers. See below for how to handle IDs for child requirements.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: ID -&gt; Requirements.statement.key
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">URL*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The URL of the deepest section that contains the requirement. The URL provides context for the requirement text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: URL -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Requirements.statement.reference
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Requirement*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A direct quote from the IG. Add any clarifications or interpretations in a helper column like the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test Plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column. May include helpful context in square brackets.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Requirement -&gt; Requirements.statement.requirement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conformance*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The conformance verb of the requirement: SHALL, SHOULD, MAY, SHOULD NOT, SHALL NOT and DEPRECATED (see </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Further Consideration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> below for when to use DEPRECATED).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Conformance -&gt; Requirements.statement.conformance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Actor*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The actor, or actors, that the requirement constrains. The values will depend on the target specification, e.g., for Subscriptions (https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/actors.html), Client and Server.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Actor -&gt; Requirements.actor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sub-requirement(s)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The requirement set id and requirement id(s) of external requirements that are referenced by this requirement. This column will only be used when this requirements document points to requirements from a different requirement set.  For example, PDex references US Core. When creating the requirements for the PDex test kit, the US Core requirement set id will be noted in this column for the PDex requirement(s) that reference US Core.
-Format: &lt;requirement set id&gt;@&lt;list of requirement ids and ranges&gt;. E.g., the requirement set with id "hl7.fhir.us.davinci-drug-formulary_2.0.1" and requirement id "40", "41", "42", and "50"  would get referenced by "hl7.fhir.us.davinci-drug-formulary_2.0.1@40-42,50"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Sub-requirements -&gt; Requirements.statement.parent
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conditionality
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Whether or not the requirement is conditional on a prerequisite clause. An example of a conditional requirement is, "If the value is X, then the server SHALL do Y." Note: A blank value carries no information and does not indicate if </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conditionality</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is true or false.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Conditionality -&gt; Requirements.statement.conditionality.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verifiable?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A determination as to whether this requirement can be verified:: 'No' - the requirement cannot be verified, e.g., because it is not specific enough; 'Yes' - the requirement can be verified using mechanical means or an attestation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Verifiability Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Details explaining the answer in the Verifiable? column, typically providing a rationale for why a given requirement will not be tested.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Planning To Test?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A determination as to whether this requirement will be tested. It might not be tested because it conflicts with another requirement or because it is a MAY requirement without any sub requirements.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Planning To Test Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Details explaining the answer in the Planning To Test? column, typically providing a rationale for why a given requirement will not be tested.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mapping: none</t>
-    </r>
-  </si>
-  <si>
-    <t>Actors*</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metadata
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The metadata provides identifying information and context for the collection of requirements. 
-Filling out these fields is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>optional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-These fields map directly to the R5 Requirements fields.
-Suggested values:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;inferno base url&gt;/&lt;Name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;Implementation Guide title / Source document title&gt; Requirements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: draft
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Publisher:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inferno
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
-http://www.apache.org/licenses/LICENSE-2.0
-Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright Label: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright (c) &lt;year&gt; The MITRE Corporation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reference:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Implementation Guide URL&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
-    </r>
-  </si>
-  <si>
-    <t>Interpreted as a SHOULD because It is a "strong" recommendation.</t>
-  </si>
-  <si>
-    <t>The requirements around prefetch and FHIR resource queries are not stated very clearly and it is difficult to decide which actor(s) to associate them with. Server was chosen on the idea that there are other places that tell the client that they need to support the FHIR API, e.g., the capability statement
-"can" often gets interpreted as MAY, but here the workflow doesn't complete if the server doesn't get information it needs, so interpreted as SHOULD.</t>
-  </si>
-  <si>
-    <t>STU Note from the IG:
-This proposed pre-adoption is not CDS Hooks conformant. It is possible that the CDS Hooks community will adopt an alternative solution or choose not to make any changes. Community discussion about this proposal can be found on the CDS Hooks issue list here and in Jira here. This implementation guide will be updated to align with the decision of the community and might, if necessary, fall back to the use of extensions if CDS Hooks does not choose to support prefetch based on context resources and the payer community determines that prefetch is still required.
-In addition to this preadoption, this implementation guide presumes support for prefetch query capabilities more sophisticated than the recommended prefetch query restrictions in the CDS Hooks specification. Specifically, the use of _include, as seen in the example above. It also uses a query-like mechanism to reference 'draft' orders that might not yet be available in the CRD client's repository for query, which will require query-like functionality to be implemented against in-memory objects.</t>
-  </si>
-  <si>
-    <t>raw text: "The advice returned for this hook would include the same sorts of advice as provided for using appointment-book. However, the hook is still necessary because not all encounters will be the result of appointments, not all systems that schedule appointments will necessarily have checked for coverage requirements, and the patient’s circumstances and/or coverage as well as the payer’s guidelines could have evolved since the appointment was scheduled"</t>
-  </si>
-  <si>
-    <t>this is text describing and the requirement is actually in requirement 135, so marked as DEPRECATED.</t>
-  </si>
-  <si>
-    <t>conditional on requirement 20: if clients allow users to continue their workflow before long-running CRD results return, then this is a requirement.</t>
-  </si>
-  <si>
-    <t>[Clients SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
-  </si>
-  <si>
-    <t>[Servers SHALL support] version 1.1 of the [[order-sign](https://cds-hooks.org/hooks/order-sign/2020May/order-sign)] Hook [([published v1.0 link (v1.1.0 in the change log)](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html))]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Servers SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook  [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Clients SHALL support] version 1.0 of the [[order-select](https://cds-hooks.hl7.org/hooks/order-select/2023SepSTU1Ballot/order-select/)] Hook [([published v1.0 link](https://cds-hooks.hl7.org/hooks/order-select.html))] </t>
-  </si>
-  <si>
-    <t>Coverage requirements [returned from the [order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD be limited only to those resources that are included in the `selections` context</t>
-  </si>
-  <si>
-    <t>the content of other [resources that are not included in the `selections` context] resources  [[for the order-select hook](https://cds-hooks.hl7.org/hooks/order-select.html)] SHOULD also be considered before making recommendations about what additional actions are necessary. (I.e. don’t recommend an action if there’s already a draft order to perform that action.)</t>
-  </si>
-  <si>
-    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the `patientId` [are] [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)</t>
-  </si>
-  <si>
-    <t>[For the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] the profiles expected to be used for the resources resolved to by the … `encounterId` [are] [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[for the [order-select](https://cds-hooks.hl7.org/hooks/order-select.html) hook] The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html), [and] [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html) </t>
-  </si>
-  <si>
-    <t>While this [order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.</t>
-  </si>
-  <si>
-    <t>This [[order-select](https://cds-hooks.hl7.org/hooks/order-select.html)] hook MAY be used in scenarios that don’t involve creating a true order</t>
-  </si>
-  <si>
-    <t>[[For the order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] It’s appropriate to provide warnings if there is insufficient information to determine coverage requirements.</t>
-  </si>
-  <si>
-    <t>CRD Servers MAY use this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook as a basis for associating a patient with a particular practitioner from a payer attribution perspective.</t>
-  </si>
-  <si>
-    <t>CRD clients ... SHALL, at minimum, support … processing the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
-  </si>
-  <si>
-    <t>CRD... servers SHALL, at minimum, support returning ... the Coverage Information system action for all invocations of this [[order-sign hook](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)] hook.</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the `patientId`are [profile-patient](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-patient.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: the profiles expected to be used for the resources resolved to by the … `encounterId` are [profile-encounter](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-encounter.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: The profiles expected to be used for the resources resolved to by the ... `draftOrders` context element [are] [profile-devicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-devicerequest.html), [profile-medicationrequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-medicationrequest.html), [profile-nutritionorder](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-nutritionorder.html), [profile-visionprescription](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-visionprescription.html),  [profile-servicerequest](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-servicerequest.html)]</t>
-  </si>
-  <si>
-    <t>Use and profiles for [order-select](https://hl7.org/fhir/us/davinci-crd/STU2/hooks.html#order-select) also apply to `order-sign` [([link](https://cds-hooks.hl7.org/hooks/STU1/order-sign.html)) including: while this hook does not explicitly list PractitionerRole [([us-core-practitionerrole](http://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-practitionerrole.html)) in addition to  [profile-practitioner](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-practitioner.html)] as an expected resource type for userId, it is not prohibited and is included to allow linking the user to a Practitioner in a specific role acting on behalf of a specific Organization.]</t>
-  </si>
-  <si>
-    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should v]erify that documentation requirements for the services performed have been met to ensure the services provided can be reimbursed</t>
-  </si>
-  <si>
-    <t>[In response to an [encounter-discharge](https://cds-hooks.hl7.org/hooks/encounter-discharge/STU1/encounter-discharge/) hook call, [clients should e]nsure that required follow-up planning is complete and appropriate transfer of care has been arranged, particularly for accountable care models</t>
-  </si>
-  <si>
-    <t>FHIR API</t>
-  </si>
-  <si>
-    <t>User Interaction</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Prefetch</t>
-  </si>
-  <si>
-    <t>What if</t>
-  </si>
-  <si>
-    <t>CRD Request</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>CRD Configuration</t>
-  </si>
-  <si>
-    <t>Resource creation</t>
-  </si>
-  <si>
-    <t>User interaction</t>
-  </si>
-  <si>
-    <t>Deprecated because this is a detail that implementers need to be aware of and handle based on internal implementation choices, but that an external system performing verification won't see or need to check explicitly. 72 is the real requirement.</t>
-  </si>
-  <si>
-    <t>Hook - appointment-book</t>
-  </si>
-  <si>
-    <t>Hook - encounter-start</t>
-  </si>
-  <si>
-    <t>Card - External reference</t>
-  </si>
-  <si>
-    <t>Card - Coverage information</t>
-  </si>
-  <si>
-    <t>Hook - encounter-discharge</t>
-  </si>
-  <si>
-    <t>Card - Identify additional orders</t>
-  </si>
-  <si>
-    <t>Card - Instructions</t>
-  </si>
-  <si>
-    <t>Hook - order-dispatch</t>
-  </si>
-  <si>
-    <t>Hook - order-select</t>
-  </si>
-  <si>
-    <t>Hook - order-sign</t>
-  </si>
-  <si>
-    <t>Card - Propose alternate request</t>
-  </si>
-  <si>
-    <t>Card - Create or update coverage information</t>
-  </si>
-  <si>
-    <t>Card - Request form completion</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@20,24,28,32</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@17-19,21-23,25-27,29-31</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@36,40,44</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@33-35,37-39,41-43</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@48,52,56</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@45-47,49-51,53-55</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@60,64,68,73</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@57-59,61-63,65-67,69-72</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@77,81,85,89,93</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@74-76,78-80,82-84,86-88,90-92</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@4,8,12,16</t>
-  </si>
-  <si>
-    <t>cds-hooks-library_1.0.1@1-3,5-7,9-11,13-15</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -4022,10 +4022,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D212" sqref="D212"/>
+      <selection pane="bottomRight" activeCell="C181" sqref="C178:C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4067,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>11</v>
@@ -4178,7 +4178,7 @@
         <v>35</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="T3" s="27" t="s">
         <v>36</v>
@@ -4478,7 +4478,7 @@
         <v>41</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M22" s="30" t="str" cm="1">
         <f t="array" ref="M22">PAGE_NAME(B22)</f>
@@ -4619,7 +4619,7 @@
         <v>41</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -4834,7 +4834,7 @@
         <v>73</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -4861,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -4888,7 +4888,7 @@
         <v>73</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -4915,7 +4915,7 @@
         <v>73</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -5026,7 +5026,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>50</v>
@@ -5134,7 +5134,7 @@
         <v>88</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="119" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>95</v>
       </c>
       <c r="P55" s="27" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>110</v>
       </c>
       <c r="T57" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="119" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>122</v>
       </c>
       <c r="P65" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -5662,7 +5662,7 @@
         <v>122</v>
       </c>
       <c r="P66" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>122</v>
       </c>
       <c r="P67" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
         <v>126</v>
       </c>
       <c r="P70" s="27" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -5803,7 +5803,7 @@
         <v>132</v>
       </c>
       <c r="P72" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -5826,7 +5826,7 @@
         <v>132</v>
       </c>
       <c r="P73" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -5853,10 +5853,10 @@
         <v>132</v>
       </c>
       <c r="P74" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="T74" s="27" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -5876,10 +5876,10 @@
         <v>34</v>
       </c>
       <c r="P75" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="T75" s="27" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -5906,7 +5906,7 @@
         <v>132</v>
       </c>
       <c r="P76" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -5973,7 +5973,7 @@
         <v>132</v>
       </c>
       <c r="P79" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
         <v>132</v>
       </c>
       <c r="P80" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
         <v>132</v>
       </c>
       <c r="P81" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P84" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6123,7 +6123,7 @@
         <v>29</v>
       </c>
       <c r="P85" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="P86" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -6171,10 +6171,10 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P87" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="T87" s="27" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6202,7 +6202,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P88" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P89" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -6258,7 +6258,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="T92" s="27" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P93" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P99" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -6537,10 +6537,10 @@
         <v>privacy-security-and-safety</v>
       </c>
       <c r="P101" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="T101" s="27" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
         <v>hook-configuration-extension</v>
       </c>
       <c r="P127" s="27" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -7346,10 +7346,10 @@
         <v>additional-prefetch-capabilities</v>
       </c>
       <c r="P133" s="27" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="T133" s="27" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>additional-prefetch-capabilities</v>
       </c>
       <c r="P134" s="27" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -7405,7 +7405,7 @@
         <v>additional-response-capabilities</v>
       </c>
       <c r="T135" s="27" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7475,7 +7475,7 @@
         <v>linkage-between-created-resources</v>
       </c>
       <c r="P138" s="27" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>linkage-between-created-resources</v>
       </c>
       <c r="P139" s="27" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7531,7 +7531,7 @@
         <v>linkage-between-created-resources</v>
       </c>
       <c r="P140" s="27" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7609,7 +7609,7 @@
         <v>controlling-hook-invocation</v>
       </c>
       <c r="P143" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7662,7 +7662,7 @@
         <v>controlling-hook-invocation</v>
       </c>
       <c r="P145" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -7690,7 +7690,7 @@
         <v>controlling-hook-invocation</v>
       </c>
       <c r="P146" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7718,7 +7718,7 @@
         <v>controlling-hook-invocation</v>
       </c>
       <c r="P147" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -7771,7 +7771,7 @@
         <v>supported-hooks</v>
       </c>
       <c r="P149" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -7799,7 +7799,7 @@
         <v>supported-hooks</v>
       </c>
       <c r="P150" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="407" customHeight="1" x14ac:dyDescent="0.2">
@@ -7827,7 +7827,7 @@
         <v>supported-hooks</v>
       </c>
       <c r="P151" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="T151" s="27" t="s">
         <v>228</v>
@@ -8229,7 +8229,7 @@
         <v>242</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>157</v>
@@ -8305,7 +8305,7 @@
         <v>38</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="N171" s="30" t="str" cm="1">
         <f t="array" ref="N171">SECTION_NAME(B172)</f>
@@ -8329,14 +8329,14 @@
         <v>34</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="N172" s="30" t="str" cm="1">
         <f t="array" ref="N172">SECTION_NAME(B173)</f>
         <v>appointment-book</v>
       </c>
       <c r="P172" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -8360,7 +8360,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P173" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -8455,7 +8455,7 @@
         <v>248</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>256</v>
+        <v>486</v>
       </c>
       <c r="D178" s="25" t="s">
         <v>33</v>
@@ -8468,7 +8468,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P178" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -8479,7 +8479,7 @@
         <v>248</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>257</v>
+        <v>485</v>
       </c>
       <c r="D179" s="25" t="s">
         <v>33</v>
@@ -8492,7 +8492,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P179" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -8503,7 +8503,7 @@
         <v>248</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
       <c r="D180" s="25" t="s">
         <v>33</v>
@@ -8516,7 +8516,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P180" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -8527,7 +8527,7 @@
         <v>248</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>259</v>
+        <v>487</v>
       </c>
       <c r="D181" s="25" t="s">
         <v>33</v>
@@ -8540,7 +8540,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P181" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:21" ht="153" x14ac:dyDescent="0.2">
@@ -8551,7 +8551,7 @@
         <v>248</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="D182" s="25" t="s">
         <v>28</v>
@@ -8576,7 +8576,7 @@
         <v>248</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D183" s="25" t="s">
         <v>28</v>
@@ -8601,7 +8601,7 @@
         <v>248</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D184" s="25" t="s">
         <v>33</v>
@@ -8618,7 +8618,7 @@
         <v>appointment-book</v>
       </c>
       <c r="P184" s="27" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -8629,7 +8629,7 @@
         <v>248</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D185" s="25" t="s">
         <v>33</v>
@@ -8651,10 +8651,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D186" s="25" t="s">
         <v>33</v>
@@ -8663,7 +8663,7 @@
         <v>38</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="N186" s="30" t="str" cm="1">
         <f t="array" ref="N186">SECTION_NAME(B186)</f>
@@ -8676,10 +8676,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>33</v>
@@ -8688,14 +8688,14 @@
         <v>34</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="N187" s="30" t="str" cm="1">
         <f t="array" ref="N187">SECTION_NAME(B187)</f>
         <v>encounter-start</v>
       </c>
       <c r="P187" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="85" x14ac:dyDescent="0.2">
@@ -8703,10 +8703,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D188" s="25" t="s">
         <v>33</v>
@@ -8719,7 +8719,7 @@
         <v>encounter-start</v>
       </c>
       <c r="P188" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -8727,10 +8727,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D189" s="25" t="s">
         <v>28</v>
@@ -8743,7 +8743,7 @@
         <v>encounter-start</v>
       </c>
       <c r="T189" s="27" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -8751,10 +8751,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="C190" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="D190" s="25" t="s">
         <v>28</v>
@@ -8772,10 +8772,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D191" s="25" t="s">
         <v>28</v>
@@ -8793,10 +8793,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D192" s="25" t="s">
         <v>28</v>
@@ -8814,10 +8814,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>272</v>
+        <v>482</v>
       </c>
       <c r="D193" s="25" t="s">
         <v>33</v>
@@ -8830,7 +8830,7 @@
         <v>encounter-start</v>
       </c>
       <c r="P193" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8838,10 +8838,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>273</v>
+        <v>481</v>
       </c>
       <c r="D194" s="25" t="s">
         <v>33</v>
@@ -8854,7 +8854,7 @@
         <v>encounter-start</v>
       </c>
       <c r="P194" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8862,10 +8862,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>33</v>
@@ -8882,7 +8882,7 @@
         <v>encounter-start</v>
       </c>
       <c r="P195" s="27" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -8890,10 +8890,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D196" s="25" t="s">
         <v>28</v>
@@ -8915,10 +8915,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D197" s="25" t="s">
         <v>33</v>
@@ -8927,7 +8927,7 @@
         <v>38</v>
       </c>
       <c r="F197" s="25" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -8935,10 +8935,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D198" s="25" t="s">
         <v>33</v>
@@ -8947,10 +8947,10 @@
         <v>34</v>
       </c>
       <c r="F198" s="25" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="P198" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="199" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -8958,10 +8958,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>50</v>
@@ -8975,10 +8975,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D200" s="25" t="s">
         <v>50</v>
@@ -8992,10 +8992,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D201" s="25" t="s">
         <v>50</v>
@@ -9009,10 +9009,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>33</v>
@@ -9021,7 +9021,7 @@
         <v>34</v>
       </c>
       <c r="P202" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -9029,10 +9029,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="D203" s="25" t="s">
         <v>33</v>
@@ -9041,7 +9041,7 @@
         <v>34</v>
       </c>
       <c r="P203" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -9049,10 +9049,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>33</v>
@@ -9069,7 +9069,7 @@
         <v>encounter-discharge</v>
       </c>
       <c r="P204" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -9077,10 +9077,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D205" s="25" t="s">
         <v>33</v>
@@ -9089,10 +9089,10 @@
         <v>38</v>
       </c>
       <c r="F205" s="25" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="T205" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -9100,10 +9100,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D206" s="25" t="s">
         <v>33</v>
@@ -9112,13 +9112,13 @@
         <v>34</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P206" s="27" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="T206" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9126,10 +9126,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D207" s="25" t="s">
         <v>28</v>
@@ -9146,7 +9146,7 @@
         <v>order-dispatch</v>
       </c>
       <c r="T207" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:20" ht="119" x14ac:dyDescent="0.2">
@@ -9154,10 +9154,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>33</v>
@@ -9174,10 +9174,10 @@
         <v>order-dispatch</v>
       </c>
       <c r="P208" s="27" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="T208" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9185,10 +9185,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D209" s="25" t="s">
         <v>33</v>
@@ -9197,10 +9197,10 @@
         <v>38</v>
       </c>
       <c r="F209" s="25" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="T209" s="27" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9208,10 +9208,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D210" s="25" t="s">
         <v>33</v>
@@ -9220,13 +9220,13 @@
         <v>34</v>
       </c>
       <c r="F210" s="25" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="P210" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="T210" s="27" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9234,10 +9234,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>50</v>
@@ -9259,10 +9259,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C212" s="25" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D212" s="25" t="s">
         <v>50</v>
@@ -9284,10 +9284,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D213" s="25" t="s">
         <v>33</v>
@@ -9296,7 +9296,7 @@
         <v>34</v>
       </c>
       <c r="P213" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -9304,10 +9304,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D214" s="25" t="s">
         <v>33</v>
@@ -9316,7 +9316,7 @@
         <v>34</v>
       </c>
       <c r="P214" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="238" x14ac:dyDescent="0.2">
@@ -9324,10 +9324,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D215" s="25" t="s">
         <v>33</v>
@@ -9344,7 +9344,7 @@
         <v>order-select</v>
       </c>
       <c r="P215" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="170" x14ac:dyDescent="0.2">
@@ -9352,10 +9352,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D216" s="25" t="s">
         <v>33</v>
@@ -9364,7 +9364,7 @@
         <v>34</v>
       </c>
       <c r="P216" s="27" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -9372,10 +9372,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D217" s="25" t="s">
         <v>28</v>
@@ -9397,10 +9397,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D218" s="25" t="s">
         <v>33</v>
@@ -9409,7 +9409,7 @@
         <v>38</v>
       </c>
       <c r="F218" s="25" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9417,10 +9417,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D219" s="25" t="s">
         <v>33</v>
@@ -9429,10 +9429,10 @@
         <v>34</v>
       </c>
       <c r="F219" s="25" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="P219" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -9440,10 +9440,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D220" s="25" t="s">
         <v>28</v>
@@ -9465,10 +9465,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D221" s="25" t="s">
         <v>33</v>
@@ -9477,7 +9477,7 @@
         <v>34</v>
       </c>
       <c r="P221" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -9485,10 +9485,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>33</v>
@@ -9505,7 +9505,7 @@
         <v>order-sign</v>
       </c>
       <c r="P222" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="289" x14ac:dyDescent="0.2">
@@ -9513,10 +9513,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D223" s="25" t="s">
         <v>33</v>
@@ -9525,7 +9525,7 @@
         <v>34</v>
       </c>
       <c r="P223" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="221" x14ac:dyDescent="0.2">
@@ -9533,10 +9533,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D224" s="25" t="s">
         <v>33</v>
@@ -9545,7 +9545,7 @@
         <v>34</v>
       </c>
       <c r="P224" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -9553,10 +9553,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D225" s="25" t="s">
         <v>28</v>
@@ -9578,10 +9578,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D226" s="25" t="s">
         <v>33</v>
@@ -9598,7 +9598,7 @@
         <v>order-sign</v>
       </c>
       <c r="P226" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -9606,10 +9606,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D227" s="25" t="s">
         <v>33</v>
@@ -9631,10 +9631,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D228" s="25" t="s">
         <v>50</v>
@@ -9656,10 +9656,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D229" s="25" t="s">
         <v>50</v>
@@ -9681,10 +9681,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D230" s="25" t="s">
         <v>50</v>
@@ -9706,10 +9706,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D231" s="25" t="s">
         <v>50</v>
@@ -9731,10 +9731,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D232" s="25" t="s">
         <v>50</v>
@@ -9756,10 +9756,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D233" s="25" t="s">
         <v>50</v>
@@ -9781,10 +9781,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D234" s="25" t="s">
         <v>50</v>
@@ -9806,10 +9806,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D235" s="25" t="s">
         <v>50</v>
@@ -9831,10 +9831,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D236" s="25" t="s">
         <v>50</v>
@@ -9856,10 +9856,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D237" s="25" t="s">
         <v>50</v>
@@ -9881,10 +9881,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C238" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="C238" s="25" t="s">
-        <v>303</v>
       </c>
       <c r="D238" s="25" t="s">
         <v>50</v>
@@ -9906,10 +9906,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D239" s="25" t="s">
         <v>50</v>
@@ -9931,10 +9931,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D240" s="25" t="s">
         <v>50</v>
@@ -9956,10 +9956,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D241" s="25" t="s">
         <v>50</v>
@@ -9981,10 +9981,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D242" s="25" t="s">
         <v>105</v>
@@ -10006,10 +10006,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D243" s="25" t="s">
         <v>50</v>
@@ -10031,10 +10031,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D244" s="25" t="s">
         <v>33</v>
@@ -10051,7 +10051,7 @@
         <v>potential-crd-response-types</v>
       </c>
       <c r="P244" s="27" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -10059,10 +10059,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D245" s="25" t="s">
         <v>33</v>
@@ -10079,7 +10079,7 @@
         <v>potential-crd-response-types</v>
       </c>
       <c r="P245" s="27" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -10087,10 +10087,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D246" s="25" t="s">
         <v>33</v>
@@ -10107,7 +10107,7 @@
         <v>potential-crd-response-types</v>
       </c>
       <c r="P246" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -10115,10 +10115,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D247" s="25" t="s">
         <v>50</v>
@@ -10140,10 +10140,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>33</v>
@@ -10165,10 +10165,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D249" s="25" t="s">
         <v>33</v>
@@ -10190,10 +10190,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D250" s="25" t="s">
         <v>33</v>
@@ -10215,10 +10215,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D251" s="25" t="s">
         <v>28</v>
@@ -10240,10 +10240,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D252" s="25" t="s">
         <v>28</v>
@@ -10265,10 +10265,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D253" s="25" t="s">
         <v>33</v>
@@ -10290,10 +10290,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C254" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="C254" s="25" t="s">
-        <v>320</v>
       </c>
       <c r="D254" s="25" t="s">
         <v>105</v>
@@ -10315,10 +10315,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D255" s="25" t="s">
         <v>33</v>
@@ -10335,7 +10335,7 @@
         <v>potential-crd-response-types</v>
       </c>
       <c r="P255" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -10343,10 +10343,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D256" s="25" t="s">
         <v>33</v>
@@ -10363,7 +10363,7 @@
         <v>potential-crd-response-types</v>
       </c>
       <c r="P256" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -10371,10 +10371,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>50</v>
@@ -10396,10 +10396,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D258" s="25" t="s">
         <v>50</v>
@@ -10421,10 +10421,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D259" s="25" t="s">
         <v>33</v>
@@ -10446,10 +10446,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D260" s="25" t="s">
         <v>33</v>
@@ -10471,10 +10471,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>50</v>
@@ -10496,10 +10496,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D262" s="25" t="s">
         <v>50</v>
@@ -10521,10 +10521,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D263" s="25" t="s">
         <v>33</v>
@@ -10546,10 +10546,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>33</v>
@@ -10566,7 +10566,7 @@
         <v>coverage-information</v>
       </c>
       <c r="P264" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -10574,10 +10574,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D265" s="25" t="s">
         <v>33</v>
@@ -10599,10 +10599,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D266" s="25" t="s">
         <v>33</v>
@@ -10624,10 +10624,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D267" s="25" t="s">
         <v>28</v>
@@ -10649,10 +10649,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D268" s="25" t="s">
         <v>157</v>
@@ -10674,10 +10674,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D269" s="25" t="s">
         <v>50</v>
@@ -10699,10 +10699,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D270" s="25" t="s">
         <v>50</v>
@@ -10724,10 +10724,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D271" s="25" t="s">
         <v>50</v>
@@ -10749,10 +10749,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D272" s="25" t="s">
         <v>105</v>
@@ -10774,10 +10774,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C273" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="C273" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="D273" s="25" t="s">
         <v>33</v>
@@ -10799,10 +10799,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D274" s="25" t="s">
         <v>33</v>
@@ -10824,10 +10824,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D275" s="25" t="s">
         <v>33</v>
@@ -10849,10 +10849,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D276" s="25" t="s">
         <v>33</v>
@@ -10874,10 +10874,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D277" s="25" t="s">
         <v>33</v>
@@ -10899,10 +10899,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D278" s="25" t="s">
         <v>33</v>
@@ -10924,10 +10924,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D279" s="25" t="s">
         <v>33</v>
@@ -10944,7 +10944,7 @@
         <v>coverage-information</v>
       </c>
       <c r="P279" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -10952,10 +10952,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D280" s="25" t="s">
         <v>33</v>
@@ -10977,10 +10977,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D281" s="25" t="s">
         <v>33</v>
@@ -10997,7 +10997,7 @@
         <v>coverage-information</v>
       </c>
       <c r="P281" s="27" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="51" x14ac:dyDescent="0.2">
@@ -11005,10 +11005,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D282" s="25" t="s">
         <v>28</v>
@@ -11030,10 +11030,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D283" s="25" t="s">
         <v>50</v>
@@ -11055,10 +11055,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D284" s="25" t="s">
         <v>50</v>
@@ -11080,10 +11080,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D285" s="25" t="s">
         <v>33</v>
@@ -11100,7 +11100,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P285" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="153" x14ac:dyDescent="0.2">
@@ -11108,10 +11108,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D286" s="25" t="s">
         <v>33</v>
@@ -11128,7 +11128,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P286" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="287" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -11136,10 +11136,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D287" s="25" t="s">
         <v>33</v>
@@ -11156,7 +11156,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P287" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="187" x14ac:dyDescent="0.2">
@@ -11164,10 +11164,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D288" s="25" t="s">
         <v>33</v>
@@ -11184,7 +11184,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P288" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="289" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -11192,10 +11192,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D289" s="25" t="s">
         <v>33</v>
@@ -11212,7 +11212,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P289" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -11220,10 +11220,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D290" s="25" t="s">
         <v>33</v>
@@ -11240,7 +11240,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P290" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -11248,10 +11248,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D291" s="25" t="s">
         <v>33</v>
@@ -11268,7 +11268,7 @@
         <v>propose-alternate-request</v>
       </c>
       <c r="P291" s="27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="153" x14ac:dyDescent="0.2">
@@ -11276,10 +11276,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D292" s="25" t="s">
         <v>33</v>
@@ -11292,7 +11292,7 @@
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
       <c r="P292" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="153" x14ac:dyDescent="0.2">
@@ -11300,10 +11300,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D293" s="25" t="s">
         <v>33</v>
@@ -11316,7 +11316,7 @@
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
       <c r="P293" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="170" x14ac:dyDescent="0.2">
@@ -11324,10 +11324,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D294" s="25" t="s">
         <v>33</v>
@@ -11340,7 +11340,7 @@
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
       <c r="P294" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="119" x14ac:dyDescent="0.2">
@@ -11348,10 +11348,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="33" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D295" s="25" t="s">
         <v>33</v>
@@ -11364,7 +11364,7 @@
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
       <c r="P295" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="296" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -11372,10 +11372,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="33" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D296" s="25" t="s">
         <v>33</v>
@@ -11388,7 +11388,7 @@
         <v>identify-additional-orders-as-companionsprerequisites-for-current-order</v>
       </c>
       <c r="P296" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -11396,10 +11396,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C297" s="25" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D297" s="25" t="s">
         <v>28</v>
@@ -11413,10 +11413,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D298" s="25" t="s">
         <v>33</v>
@@ -11433,7 +11433,7 @@
         <v>request-form-completion</v>
       </c>
       <c r="P298" s="27" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -11441,10 +11441,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D299" s="25" t="s">
         <v>50</v>
@@ -11466,10 +11466,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D300" s="25" t="s">
         <v>33</v>
@@ -11491,10 +11491,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D301" s="25" t="s">
         <v>50</v>
@@ -11516,10 +11516,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D302" s="25" t="s">
         <v>50</v>
@@ -11541,10 +11541,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D303" s="25" t="s">
         <v>28</v>
@@ -11566,10 +11566,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D304" s="25" t="s">
         <v>33</v>
@@ -11586,7 +11586,7 @@
         <v>create-or-update-coverage-information</v>
       </c>
       <c r="P304" s="27" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:16" ht="68" x14ac:dyDescent="0.2">
@@ -11594,10 +11594,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D305" s="25" t="s">
         <v>28</v>
@@ -11619,10 +11619,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D306" s="25" t="s">
         <v>157</v>
@@ -11644,10 +11644,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D307" s="25" t="s">
         <v>33</v>
@@ -11669,10 +11669,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C308" s="25" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D308" s="25" t="s">
         <v>28</v>
@@ -11694,10 +11694,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C309" s="25" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D309" s="25" t="s">
         <v>33</v>
@@ -11714,7 +11714,7 @@
         <v>suppressing-guidance</v>
       </c>
       <c r="P309" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="310" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -11722,10 +11722,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C310" s="25" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D310" s="25" t="s">
         <v>50</v>
@@ -11747,10 +11747,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D311" s="25" t="s">
         <v>50</v>
@@ -11772,10 +11772,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C312" s="25" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D312" s="25" t="s">
         <v>28</v>
@@ -13328,7 +13328,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B1" s="48"/>
     </row>
@@ -13338,72 +13338,72 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -13431,19 +13431,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13451,13 +13451,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E2" s="23">
         <v>45583</v>
@@ -13481,13 +13481,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -13501,10 +13501,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13515,10 +13515,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -13526,7 +13526,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A3B58-42DD-5049-B4B7-07D172D22508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9B761-2B41-F642-9077-0513480C27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="2200" yWindow="3000" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="489">
   <si>
     <r>
       <rPr>
@@ -3096,6 +3096,9 @@
       </rPr>
       <t>](https://hl7.org/fhir/us/davinci-crd/STU2/StructureDefinition-profile-appointment.html)</t>
     </r>
+  </si>
+  <si>
+    <t>Deprecated because this is an explanation of what implementers need to do internally to accomplish requirements, for example, adding coverage-information extensions to provided orders (See equirements 278 and 280)</t>
   </si>
 </sst>
 </file>
@@ -4022,10 +4025,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C181" sqref="C178:C181"/>
+      <selection pane="bottomRight" activeCell="T256" sqref="T256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9951,7 +9954,7 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="25">
         <v>240</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="25">
         <v>241</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="25">
         <v>242</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>cards-profiles</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="25">
         <v>243</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="25">
         <v>244</v>
       </c>
@@ -10082,7 +10085,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="25">
         <v>245</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="25">
         <v>246</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A248" s="25">
         <v>247</v>
       </c>
@@ -10160,7 +10163,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A249" s="25">
         <v>248</v>
       </c>
@@ -10185,7 +10188,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A250" s="25">
         <v>249</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" s="25">
         <v>250</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A252" s="25">
         <v>251</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="25">
         <v>252</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A254" s="25">
         <v>253</v>
       </c>
@@ -10310,7 +10313,7 @@
         <v>potential-crd-response-types</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A255" s="25">
         <v>254</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>310</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="E255" s="25" t="s">
         <v>34</v>
@@ -10337,8 +10340,11 @@
       <c r="P255" s="27" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="T255" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" s="25">
         <v>255</v>
       </c>

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9B761-2B41-F642-9077-0513480C27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2004C8-3BAD-084E-B65B-BA41D128F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="3000" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="494">
   <si>
     <r>
       <rPr>
@@ -3099,6 +3099,21 @@
   </si>
   <si>
     <t>Deprecated because this is an explanation of what implementers need to do internally to accomplish requirements, for example, adding coverage-information extensions to provided orders (See equirements 278 and 280)</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/CapabilityStatement-crd-client.html</t>
+  </si>
+  <si>
+    <t>the CRD Client SHALL support all ‘SHOULD’ ‘read’ and ‘search’ capabilities listed below for resources referenced in supported hooks and order types if it does not support returning the associated resources as part of CDS Hooks pre-fetch.</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for all resources listed below where the client allows invoking hooks based on the resource.</t>
+  </si>
+  <si>
+    <t>Implementations SHALL meet the general security requirements documented in the [HRex implementation guide](http://hl7.org/fhir/us/davinci-hrex/STU1/security.html)</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-crd/STU2/CapabilityStatement-crd-client.html#mode1</t>
   </si>
 </sst>
 </file>
@@ -4025,10 +4040,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T256" sqref="T256"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7324,7 +7339,7 @@
         <v>hook-configuration-extension</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A133" s="25">
         <v>132</v>
       </c>
@@ -11798,29 +11813,71 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B313" s="33"/>
-    </row>
-    <row r="314" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B314" s="33"/>
+    <row r="313" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="A313" s="25">
+        <v>312</v>
+      </c>
+      <c r="B313" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D313" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E313" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A314" s="25">
+        <v>313</v>
+      </c>
+      <c r="B314" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C314" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D314" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E314" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M314" s="30" t="str" cm="1">
         <f t="array" ref="M314">PAGE_NAME(B314)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N314" s="30" t="str" cm="1">
         <f t="array" ref="N314">SECTION_NAME(B314)</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B315" s="33"/>
+    <row r="315" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A315" s="25">
+        <v>314</v>
+      </c>
+      <c r="B315" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C315" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="D315" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E315" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M315" s="30" t="str" cm="1">
         <f t="array" ref="M315">PAGE_NAME(B315)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N315" s="30" t="str" cm="1">
         <f t="array" ref="N315">SECTION_NAME(B315)</f>
-        <v/>
+        <v>mode1</v>
       </c>
     </row>
     <row r="316" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -13289,6 +13346,9 @@
     <hyperlink ref="B43" r:id="rId259" location="additional-data-retrieval" xr:uid="{4CA5E12F-5D9B-4E70-BFE0-23078A77DAD2}"/>
     <hyperlink ref="B61" r:id="rId260" location="query-notes" xr:uid="{F352642C-5E42-44B7-A229-709C7B04AFA5}"/>
     <hyperlink ref="B35" r:id="rId261" location="enabling-a-crd-server" xr:uid="{29492AB6-A2B3-4D6D-AE1A-D0642733CC57}"/>
+    <hyperlink ref="B313" r:id="rId262" xr:uid="{5A7044E4-ECC6-8346-910D-AA03F675DEC7}"/>
+    <hyperlink ref="B314" r:id="rId263" xr:uid="{2FA4B1FA-85FD-AD4D-BEA5-6604BC45F12B}"/>
+    <hyperlink ref="B315" r:id="rId264" location="mode1" xr:uid="{F4E24FAE-9A70-494A-B2FE-AAD9593C3236}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13304,7 +13364,7 @@
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D298:D1048576 D2:D296</xm:sqref>
+          <xm:sqref>D2:D296 D298:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
@@ -13569,15 +13629,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -13831,6 +13882,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -13850,14 +13910,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EEC221-F5CD-4DEF-B390-EE14E23A8785}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13875,4 +13927,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2004C8-3BAD-084E-B65B-BA41D128F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D760745-DA8C-F546-9419-567A97B233B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34260" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$T$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$T$434</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="495">
   <si>
     <r>
       <rPr>
@@ -3114,6 +3114,9 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/us/davinci-crd/STU2/CapabilityStatement-crd-client.html#mode1</t>
+  </si>
+  <si>
+    <t>If the client supports DTR</t>
   </si>
 </sst>
 </file>
@@ -4040,10 +4043,10 @@
   <dimension ref="A1:AE434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10375,6 +10378,12 @@
       <c r="E256" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="G256" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="27" t="s">
+        <v>494</v>
+      </c>
       <c r="M256" s="30" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
         <v>cards</v>
@@ -13082,7 +13091,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T312" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:T434" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="mustsupport" xr:uid="{184F9D0E-560D-48E2-89DF-D828B07B1E5F}"/>

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D760745-DA8C-F546-9419-567A97B233B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D4EC5-DE23-B445-BB2D-4C749561019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$T$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$T$433</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="504">
   <si>
     <r>
       <rPr>
@@ -3107,9 +3107,6 @@
     <t>the CRD Client SHALL support all ‘SHOULD’ ‘read’ and ‘search’ capabilities listed below for resources referenced in supported hooks and order types if it does not support returning the associated resources as part of CDS Hooks pre-fetch.</t>
   </si>
   <si>
-    <t>The CRD Client SHALL also support ‘update’ functionality for all resources listed below where the client allows invoking hooks based on the resource.</t>
-  </si>
-  <si>
     <t>Implementations SHALL meet the general security requirements documented in the [HRex implementation guide](http://hl7.org/fhir/us/davinci-hrex/STU1/security.html)</t>
   </si>
   <si>
@@ -3117,6 +3114,40 @@
   </si>
   <si>
     <t>If the client supports DTR</t>
+  </si>
+  <si>
+    <t>[CRD Clients SHALL also implement the US Core Server Capability Statement imported by this CapabilityStatement]</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the Appointment resource type when] the client allows invoking [the appointment-book hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the Encounter resource type when] the client allows invoking [the encounter-start or encounter-discharge hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the DeviceRequest resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the CommunicationRequest resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the MedicationRequest resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the NutritionOrder resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the ServiceRequest resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>The CRD Client SHALL also support ‘update’ functionality for [the VisionPrescription resource type when] the client allows invoking [the order-dispatch, order-select, or order-sign hook].</t>
+  </si>
+  <si>
+    <t>This only adds a few capabilities beyond what is already in US Core starting with 3.1.1:
+- Coverage search doesn't get required by US Core until US Core 6
+- Coverage search by status not required by US Core
+- Encounter search by location (with patient) required by US Core starting in US Core 5
+- PractitionerRole search by organization and id not required by US Core</t>
   </si>
 </sst>
 </file>
@@ -4040,13 +4071,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <dimension ref="A1:AE434"/>
+  <dimension ref="A1:AE433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="T316" sqref="T316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10382,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="H256" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M256" s="30" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
@@ -11619,7 +11650,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A305" s="25">
         <v>304</v>
       </c>
@@ -11644,7 +11675,7 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A306" s="25">
         <v>305</v>
       </c>
@@ -11669,7 +11700,7 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" s="25">
         <v>306</v>
       </c>
@@ -11694,7 +11725,7 @@
         <v>create-or-update-coverage-information</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" s="25">
         <v>307</v>
       </c>
@@ -11719,7 +11750,7 @@
         <v>launch-smart-application</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="25">
         <v>308</v>
       </c>
@@ -11747,7 +11778,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" s="25">
         <v>309</v>
       </c>
@@ -11772,7 +11803,7 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A311" s="25">
         <v>310</v>
       </c>
@@ -11797,7 +11828,7 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="25">
         <v>311</v>
       </c>
@@ -11822,7 +11853,7 @@
         <v>impact-on-payer-processes</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" ht="170" x14ac:dyDescent="0.2">
       <c r="A313" s="25">
         <v>312</v>
       </c>
@@ -11838,13 +11869,19 @@
       <c r="E313" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="P313" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="T313" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A314" s="25">
         <v>313</v>
       </c>
       <c r="B314" s="33" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C314" s="25" t="s">
         <v>491</v>
@@ -11861,18 +11898,21 @@
       </c>
       <c r="N314" s="30" t="str" cm="1">
         <f t="array" ref="N314">SECTION_NAME(B314)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>mode1</v>
+      </c>
+      <c r="P314" s="27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="25">
         <v>314</v>
       </c>
       <c r="B315" s="33" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D315" s="25" t="s">
         <v>33</v>
@@ -11886,98 +11926,237 @@
       </c>
       <c r="N315" s="30" t="str" cm="1">
         <f t="array" ref="N315">SECTION_NAME(B315)</f>
-        <v>mode1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B316" s="33"/>
+        <v/>
+      </c>
+      <c r="P315" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A316" s="25">
+        <v>315</v>
+      </c>
+      <c r="B316" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D316" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E316" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M316" s="30" t="str" cm="1">
         <f t="array" ref="M316">PAGE_NAME(B316)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N316" s="30" t="str" cm="1">
         <f t="array" ref="N316">SECTION_NAME(B316)</f>
         <v/>
       </c>
-    </row>
-    <row r="317" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B317" s="33"/>
+      <c r="P316" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A317" s="25">
+        <v>316</v>
+      </c>
+      <c r="B317" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C317" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="D317" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E317" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M317" s="30" t="str" cm="1">
         <f t="array" ref="M317">PAGE_NAME(B317)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N317" s="30" t="str" cm="1">
         <f t="array" ref="N317">SECTION_NAME(B317)</f>
         <v/>
       </c>
-    </row>
-    <row r="318" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B318" s="33"/>
+      <c r="P317" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A318" s="25">
+        <v>317</v>
+      </c>
+      <c r="B318" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C318" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D318" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E318" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M318" s="30" t="str" cm="1">
         <f t="array" ref="M318">PAGE_NAME(B318)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N318" s="30" t="str" cm="1">
         <f t="array" ref="N318">SECTION_NAME(B318)</f>
         <v/>
       </c>
-    </row>
-    <row r="319" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B319" s="33"/>
+      <c r="P318" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A319" s="25">
+        <v>318</v>
+      </c>
+      <c r="B319" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C319" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="D319" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E319" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M319" s="30" t="str" cm="1">
         <f t="array" ref="M319">PAGE_NAME(B319)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N319" s="30" t="str" cm="1">
         <f t="array" ref="N319">SECTION_NAME(B319)</f>
         <v/>
       </c>
-    </row>
-    <row r="320" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B320" s="33"/>
+      <c r="P319" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A320" s="25">
+        <v>319</v>
+      </c>
+      <c r="B320" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C320" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D320" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E320" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M320" s="30" t="str" cm="1">
         <f t="array" ref="M320">PAGE_NAME(B320)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N320" s="30" t="str" cm="1">
         <f t="array" ref="N320">SECTION_NAME(B320)</f>
         <v/>
       </c>
-    </row>
-    <row r="321" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B321" s="33"/>
+      <c r="P320" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A321" s="25">
+        <v>320</v>
+      </c>
+      <c r="B321" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C321" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D321" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E321" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M321" s="30" t="str" cm="1">
         <f t="array" ref="M321">PAGE_NAME(B321)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N321" s="30" t="str" cm="1">
         <f t="array" ref="N321">SECTION_NAME(B321)</f>
         <v/>
       </c>
-    </row>
-    <row r="322" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B322" s="33"/>
+      <c r="P321" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A322" s="25">
+        <v>321</v>
+      </c>
+      <c r="B322" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C322" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="D322" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E322" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M322" s="30" t="str" cm="1">
         <f t="array" ref="M322">PAGE_NAME(B322)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N322" s="30" t="str" cm="1">
         <f t="array" ref="N322">SECTION_NAME(B322)</f>
         <v/>
       </c>
-    </row>
-    <row r="323" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B323" s="33"/>
+      <c r="P322" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A323" s="25">
+        <v>322</v>
+      </c>
+      <c r="B323" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C323" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D323" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E323" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M323" s="30" t="str" cm="1">
         <f t="array" ref="M323">PAGE_NAME(B323)</f>
-        <v/>
+        <v>CapabilityStatement-crd-client</v>
       </c>
       <c r="N323" s="30" t="str" cm="1">
         <f t="array" ref="N323">SECTION_NAME(B323)</f>
         <v/>
       </c>
-    </row>
-    <row r="324" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P323" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B324" s="33"/>
       <c r="M324" s="30" t="str" cm="1">
         <f t="array" ref="M324">PAGE_NAME(B324)</f>
@@ -11988,8 +12167,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B325" s="33"/>
+    <row r="325" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M325" s="30" t="str" cm="1">
         <f t="array" ref="M325">PAGE_NAME(B325)</f>
         <v/>
@@ -11999,7 +12177,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M326" s="30" t="str" cm="1">
         <f t="array" ref="M326">PAGE_NAME(B326)</f>
         <v/>
@@ -12009,7 +12187,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M327" s="30" t="str" cm="1">
         <f t="array" ref="M327">PAGE_NAME(B327)</f>
         <v/>
@@ -12019,7 +12197,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M328" s="30" t="str" cm="1">
         <f t="array" ref="M328">PAGE_NAME(B328)</f>
         <v/>
@@ -12029,7 +12207,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M329" s="30" t="str" cm="1">
         <f t="array" ref="M329">PAGE_NAME(B329)</f>
         <v/>
@@ -12039,7 +12217,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M330" s="30" t="str" cm="1">
         <f t="array" ref="M330">PAGE_NAME(B330)</f>
         <v/>
@@ -12049,7 +12227,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M331" s="30" t="str" cm="1">
         <f t="array" ref="M331">PAGE_NAME(B331)</f>
         <v/>
@@ -12059,7 +12237,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M332" s="30" t="str" cm="1">
         <f t="array" ref="M332">PAGE_NAME(B332)</f>
         <v/>
@@ -12069,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M333" s="30" t="str" cm="1">
         <f t="array" ref="M333">PAGE_NAME(B333)</f>
         <v/>
@@ -12079,7 +12257,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M334" s="30" t="str" cm="1">
         <f t="array" ref="M334">PAGE_NAME(B334)</f>
         <v/>
@@ -12089,7 +12267,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M335" s="30" t="str" cm="1">
         <f t="array" ref="M335">PAGE_NAME(B335)</f>
         <v/>
@@ -12099,7 +12277,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M336" s="30" t="str" cm="1">
         <f t="array" ref="M336">PAGE_NAME(B336)</f>
         <v/>
@@ -12190,6 +12368,7 @@
       </c>
     </row>
     <row r="345" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B345" s="33"/>
       <c r="M345" s="30" t="str" cm="1">
         <f t="array" ref="M345">PAGE_NAME(B345)</f>
         <v/>
@@ -12200,7 +12379,6 @@
       </c>
     </row>
     <row r="346" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B346" s="33"/>
       <c r="M346" s="30" t="str" cm="1">
         <f t="array" ref="M346">PAGE_NAME(B346)</f>
         <v/>
@@ -13080,18 +13258,8 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="13:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="M434" s="30" t="str" cm="1">
-        <f t="array" ref="M434">PAGE_NAME(B434)</f>
-        <v/>
-      </c>
-      <c r="N434" s="30" t="str" cm="1">
-        <f t="array" ref="N434">SECTION_NAME(B434)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T434" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:T433" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="mustsupport" xr:uid="{184F9D0E-560D-48E2-89DF-D828B07B1E5F}"/>
@@ -13356,8 +13524,16 @@
     <hyperlink ref="B61" r:id="rId260" location="query-notes" xr:uid="{F352642C-5E42-44B7-A229-709C7B04AFA5}"/>
     <hyperlink ref="B35" r:id="rId261" location="enabling-a-crd-server" xr:uid="{29492AB6-A2B3-4D6D-AE1A-D0642733CC57}"/>
     <hyperlink ref="B313" r:id="rId262" xr:uid="{5A7044E4-ECC6-8346-910D-AA03F675DEC7}"/>
-    <hyperlink ref="B314" r:id="rId263" xr:uid="{2FA4B1FA-85FD-AD4D-BEA5-6604BC45F12B}"/>
-    <hyperlink ref="B315" r:id="rId264" location="mode1" xr:uid="{F4E24FAE-9A70-494A-B2FE-AAD9593C3236}"/>
+    <hyperlink ref="B316" r:id="rId263" xr:uid="{2FA4B1FA-85FD-AD4D-BEA5-6604BC45F12B}"/>
+    <hyperlink ref="B314" r:id="rId264" location="mode1" xr:uid="{F4E24FAE-9A70-494A-B2FE-AAD9593C3236}"/>
+    <hyperlink ref="B315" r:id="rId265" xr:uid="{0075B5F5-9BDE-E54B-BDA4-E62690EA943E}"/>
+    <hyperlink ref="B317" r:id="rId266" xr:uid="{2A4FA271-3D53-DC4C-973D-015A52C5D891}"/>
+    <hyperlink ref="B318" r:id="rId267" xr:uid="{97761A23-9D1E-7046-A0AA-9D2D1BBC7816}"/>
+    <hyperlink ref="B319" r:id="rId268" xr:uid="{E985FC82-CF70-104C-96FF-8F6FCA25F8C0}"/>
+    <hyperlink ref="B320" r:id="rId269" xr:uid="{4970B588-B14E-EC4E-BA9F-F56016F887CD}"/>
+    <hyperlink ref="B321" r:id="rId270" xr:uid="{97C55971-E2C3-7244-81CA-BD37FB24BFA3}"/>
+    <hyperlink ref="B322" r:id="rId271" xr:uid="{43BF7D95-9CEA-1040-9742-52552CCADCCF}"/>
+    <hyperlink ref="B323" r:id="rId272" xr:uid="{18B2CDF4-D33C-B14E-A306-E6D686E42A3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13367,7 +13543,7 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G298:G1048576 G2:G296</xm:sqref>
+          <xm:sqref>G2:G296 G298:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
@@ -13379,7 +13555,7 @@
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I298:I1048576 K298:K1048576 K2:K296 I2:I296</xm:sqref>
+          <xm:sqref>K2:K296 I2:I296 I298:I1048576 K298:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/hl7.fhir.us.davinci-crd_2.0.1_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D4EC5-DE23-B445-BB2D-4C749561019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F22370C-3EBF-A84B-A177-C594769D23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="505">
   <si>
     <r>
       <rPr>
@@ -3148,6 +3148,9 @@
 - Coverage search by status not required by US Core
 - Encounter search by location (with patient) required by US Core starting in US Core 5
 - PractitionerRole search by organization and id not required by US Core</t>
+  </si>
+  <si>
+    <t>When a CRD client invokes a CRD server via CDS Hooks, it will provide an access token that allows the CRD server to retrieve additional patient information.</t>
   </si>
 </sst>
 </file>
@@ -4074,10 +4077,10 @@
   <dimension ref="A1:AE433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T316" sqref="T316"/>
+      <selection pane="bottomRight" activeCell="P324" sqref="P324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12156,15 +12159,32 @@
         <v>440</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B324" s="33"/>
+    <row r="324" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A324" s="25">
+        <v>323</v>
+      </c>
+      <c r="B324" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C324" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D324" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E324" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="M324" s="30" t="str" cm="1">
         <f t="array" ref="M324">PAGE_NAME(B324)</f>
-        <v/>
+        <v>foundation</v>
       </c>
       <c r="N324" s="30" t="str" cm="1">
         <f t="array" ref="N324">SECTION_NAME(B324)</f>
-        <v/>
+        <v>crd-access-tokens</v>
+      </c>
+      <c r="P324" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -13534,6 +13554,7 @@
     <hyperlink ref="B321" r:id="rId270" xr:uid="{97C55971-E2C3-7244-81CA-BD37FB24BFA3}"/>
     <hyperlink ref="B322" r:id="rId271" xr:uid="{43BF7D95-9CEA-1040-9742-52552CCADCCF}"/>
     <hyperlink ref="B323" r:id="rId272" xr:uid="{18B2CDF4-D33C-B14E-A306-E6D686E42A3C}"/>
+    <hyperlink ref="B324" r:id="rId273" location="crd-access-tokens" xr:uid="{B501E1B5-4CEF-F54F-B165-9093BF92BC2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -13801,16 +13822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14068,28 +14085,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14115,9 +14126,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>